--- a/uploads/plantilla_planificacion/plantilla_carga_planificacionestudiante.xlsx
+++ b/uploads/plantilla_planificacion/plantilla_carga_planificacionestudiante.xlsx
@@ -1,13 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antonio\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F98DDBD-C75A-472F-BB8E-77CE2763F302}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="plantilla" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="asignaturas" sheetId="2" r:id="rId5"/>
+    <sheet name="plantilla" sheetId="1" r:id="rId1"/>
+    <sheet name="codigo_malla" sheetId="4" r:id="rId2"/>
+    <sheet name="carreras" sheetId="3" r:id="rId3"/>
+    <sheet name="asignaturas" sheetId="2" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mj4RrafVV9PkcgDSFJFEcpIVVIe9Q=="/>
@@ -17,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="783">
   <si>
     <t>CODIGO MALLA</t>
   </si>
@@ -2018,30 +2029,381 @@
   </si>
   <si>
     <t>624, Elementary I</t>
+  </si>
+  <si>
+    <t>Licenciatura en Comercio Exterior</t>
+  </si>
+  <si>
+    <t>Economía</t>
+  </si>
+  <si>
+    <t>Licenciatura en Finanzas</t>
+  </si>
+  <si>
+    <t>Licenciatura en Mercadotecnia</t>
+  </si>
+  <si>
+    <t>Licenciatura en Turismo</t>
+  </si>
+  <si>
+    <t>Licenciatura en Administracion de Empresas</t>
+  </si>
+  <si>
+    <t>Ingenieria en Software</t>
+  </si>
+  <si>
+    <t>Ingenieria en Telecomunicaciones</t>
+  </si>
+  <si>
+    <t>Licenciatura en Contabilidad y Auditoria</t>
+  </si>
+  <si>
+    <t>Ingenieria en Tecnologias de La Información</t>
+  </si>
+  <si>
+    <t>Ingenieria en Logística y Transporte</t>
+  </si>
+  <si>
+    <t>Licenciatura en Comunicación</t>
+  </si>
+  <si>
+    <t>Licenciatura en Gestión y Talento Humano</t>
+  </si>
+  <si>
+    <t>Administración de Empresas</t>
+  </si>
+  <si>
+    <t>Finanzas en con Mención en Tributación</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Sistema de Información Gerencial</t>
+  </si>
+  <si>
+    <t>Gestión de Empresas Turísticas</t>
+  </si>
+  <si>
+    <t>Gestión del Talento Humano</t>
+  </si>
+  <si>
+    <t>Dirección Estratégica en Empresas Familiares</t>
+  </si>
+  <si>
+    <t>Gestión en Procesos Organizacionales</t>
+  </si>
+  <si>
+    <t>Negocios Internacionales</t>
+  </si>
+  <si>
+    <t>Educación</t>
+  </si>
+  <si>
+    <t>Mercadotecnia</t>
+  </si>
+  <si>
+    <t>Dirección de Empresas</t>
+  </si>
+  <si>
+    <t>Economía Mención Economía Empresarial y Negocios</t>
+  </si>
+  <si>
+    <t>Ingeniería en Comercio Exterior Mención Negocios Internacionales</t>
+  </si>
+  <si>
+    <t>Ingeniería en Contaduría Pública y Auditoría</t>
+  </si>
+  <si>
+    <t>Ingeniería en Gestión Empresarial Mención Finanzas y Auditoría</t>
+  </si>
+  <si>
+    <t>Ingeniería en Gestión Empresarial Mención Marketing y Ventas</t>
+  </si>
+  <si>
+    <t>Ingeniería en Sistemas Computacionales Mención Aplicaciones Web y Multimedia</t>
+  </si>
+  <si>
+    <t>Ingeniería en Sistemas Computacionales Mención Redes y Comunicaciones</t>
+  </si>
+  <si>
+    <t>Licenciatura en Comercio Exterior Mención Negocios Internacionales</t>
+  </si>
+  <si>
+    <t>Licenciatura en Contaduría Pública y Auditoría</t>
+  </si>
+  <si>
+    <t>Licenciatura en Gestión Empresarial Mención Marketing y Ventas</t>
+  </si>
+  <si>
+    <t>Licenciatura en Gestión Empresarial Mención Finanzas y Auditoría</t>
+  </si>
+  <si>
+    <t>Psicología Laboral y Empresarial</t>
+  </si>
+  <si>
+    <t>Ingenieria Portuaria y Aduanera Mencion Administracion Portuaria</t>
+  </si>
+  <si>
+    <t>Licenciatura Portuaria y Aduanera Mencion Administracion Portuaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingenieria en Gestión de Telecomunicaciones Mención Redes de Acceso y Telefonía </t>
+  </si>
+  <si>
+    <t>Derecho Constitucional</t>
+  </si>
+  <si>
+    <t>Administración Pública mención Desarrollo Institucional</t>
+  </si>
+  <si>
+    <t>Ingeniería en Gestión Hotelera y Turística</t>
+  </si>
+  <si>
+    <t>Licenciatura en Gestión Hotelera y Turística</t>
+  </si>
+  <si>
+    <t>Gestión en Proyectos</t>
+  </si>
+  <si>
+    <t>Derecho</t>
+  </si>
+  <si>
+    <t>Educación Báscica</t>
+  </si>
+  <si>
+    <t>Gestión Social y Desarrollo</t>
+  </si>
+  <si>
+    <t>Gestión de riesgos y desastres</t>
+  </si>
+  <si>
+    <t>Ingeniería Ambiental</t>
+  </si>
+  <si>
+    <t>Ingeniería en Sistemas de Información</t>
+  </si>
+  <si>
+    <t>Ingeniería Industrial</t>
+  </si>
+  <si>
+    <t>Multimedia y Producción audiovisual</t>
+  </si>
+  <si>
+    <t>Nutrición y Dietética</t>
+  </si>
+  <si>
+    <t>Pedagogía en lengua y literatura</t>
+  </si>
+  <si>
+    <t>Pedagogía Técnica de la Mecatrónica</t>
+  </si>
+  <si>
+    <t>Pscicología</t>
+  </si>
+  <si>
+    <t>Puertos y Aduanas</t>
+  </si>
+  <si>
+    <t>Relaciones Internaciones</t>
+  </si>
+  <si>
+    <t>Tecnologías de la Información</t>
+  </si>
+  <si>
+    <t>Negocios electrónicos</t>
+  </si>
+  <si>
+    <t>Desarrollo local</t>
+  </si>
+  <si>
+    <t>Turismo</t>
+  </si>
+  <si>
+    <t>Telecomunicaciones con Mención en Gestión de las Telecomunicaciones</t>
+  </si>
+  <si>
+    <t>Ingeniería en Contaduría Pública y Auditoría - 2009</t>
+  </si>
+  <si>
+    <t>GRA-0001</t>
+  </si>
+  <si>
+    <t>Ingeniería en Sistemas Computacionales Mención Redes de Comunicaciones - 2009</t>
+  </si>
+  <si>
+    <t>GRA-0002</t>
+  </si>
+  <si>
+    <t>Ingeniería en Gestión de Telecomunicaciones Mención Redes de Acceso y Telefonía - 2009</t>
+  </si>
+  <si>
+    <t>GRA-0003</t>
+  </si>
+  <si>
+    <t>Ingeniería en Gestión Hotelera y Turística - 2009</t>
+  </si>
+  <si>
+    <t>GRA-0004</t>
+  </si>
+  <si>
+    <t>Licenciatura en Gestión Hotelera y Turística - 2009</t>
+  </si>
+  <si>
+    <t>GRA-0005</t>
+  </si>
+  <si>
+    <t>Ingeniería en Gestión Empresarial Mención Marketing y Ventas - 2009</t>
+  </si>
+  <si>
+    <t>GRA-0006</t>
+  </si>
+  <si>
+    <t>Licenciatura en Gestión Empresarial Mención Marketing y Ventas - 2009</t>
+  </si>
+  <si>
+    <t>GRA-0007</t>
+  </si>
+  <si>
+    <t>Ingeniería en Gestión Empresarial Mención Finanzas y Auditoría - 2009</t>
+  </si>
+  <si>
+    <t>GRA-0008</t>
+  </si>
+  <si>
+    <t>Licenciatura en Gestión Empresarial Mención Finanzas y Auditoría - 2009</t>
+  </si>
+  <si>
+    <t>GRA-0009</t>
+  </si>
+  <si>
+    <t>GRA-0010</t>
+  </si>
+  <si>
+    <t>Licenciatura en Contaduría Pública y Auditoría - 2009</t>
+  </si>
+  <si>
+    <t>GRA-0011</t>
+  </si>
+  <si>
+    <t>Ingeniería en Comercio Exterior Mención Negocios Internacionales - 2009</t>
+  </si>
+  <si>
+    <t>GRA-0012</t>
+  </si>
+  <si>
+    <t>Licenciatura en Comercio Exterior Mención Negocios Internacionales - 2009</t>
+  </si>
+  <si>
+    <t>GRA-0013</t>
+  </si>
+  <si>
+    <t>Ingeniería Portuaria y Aduanera Mención Administración Portuaria - 2009</t>
+  </si>
+  <si>
+    <t>GRA-0014</t>
+  </si>
+  <si>
+    <t>Psicología Laboral y Empresarial - 2009</t>
+  </si>
+  <si>
+    <t>GRA-0015</t>
+  </si>
+  <si>
+    <t>Ingeniería en Sistemas Computacionales Mención Web y Multimedia - 2009</t>
+  </si>
+  <si>
+    <t>GRA-0016</t>
+  </si>
+  <si>
+    <t>Economía – 2017</t>
+  </si>
+  <si>
+    <t>GRA-0017</t>
+  </si>
+  <si>
+    <t>Licenciatura en Finanzas – 2017</t>
+  </si>
+  <si>
+    <t>GRA-0018</t>
+  </si>
+  <si>
+    <t>Licenciatura en Turismo – 2017</t>
+  </si>
+  <si>
+    <t>GRA-0019</t>
+  </si>
+  <si>
+    <t>Licenciatura en Contabilidad y Auditoria – 2017</t>
+  </si>
+  <si>
+    <t>GRA-0020</t>
+  </si>
+  <si>
+    <t>Licenciatura en Administración de Empresas – 2017</t>
+  </si>
+  <si>
+    <t>GRA-0021</t>
+  </si>
+  <si>
+    <t>Licenciatura en Mercadotecnia – 2017</t>
+  </si>
+  <si>
+    <t>GRA-0022</t>
+  </si>
+  <si>
+    <t>Licenciatura en Gestión del Talento Humano – 2017</t>
+  </si>
+  <si>
+    <t>GRA-0023</t>
+  </si>
+  <si>
+    <t>Licenciatura en Comercio Exterior – 2017</t>
+  </si>
+  <si>
+    <t>GRA-0024</t>
+  </si>
+  <si>
+    <t>Ingeniería en Logística y Transporte – 2017</t>
+  </si>
+  <si>
+    <t>GRA-0025</t>
+  </si>
+  <si>
+    <t>Ingeniería en Software – 2017</t>
+  </si>
+  <si>
+    <t>GRA-0026</t>
+  </si>
+  <si>
+    <t>Ingeniería en Telecomunicaciones – 2017</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2049,11 +2411,32 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
-    <border/>
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -2064,49 +2447,40 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -2296,4379 +2670,4964 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AO999"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="43.71"/>
-    <col customWidth="1" min="2" max="2" width="18.14"/>
-    <col customWidth="1" min="3" max="3" width="76.29"/>
-    <col customWidth="1" min="4" max="4" width="19.43"/>
-    <col customWidth="1" min="5" max="5" width="20.57"/>
-    <col customWidth="1" min="6" max="6" width="19.86"/>
-    <col customWidth="1" min="7" max="7" width="16.57"/>
-    <col customWidth="1" min="8" max="8" width="18.86"/>
-    <col customWidth="1" min="9" max="9" width="28.86"/>
-    <col customWidth="1" min="10" max="10" width="17.57"/>
-    <col customWidth="1" min="11" max="12" width="24.43"/>
-    <col customWidth="1" min="13" max="13" width="17.86"/>
-    <col customWidth="1" min="14" max="15" width="26.14"/>
-    <col customWidth="1" min="16" max="16" width="18.29"/>
-    <col customWidth="1" min="17" max="18" width="23.86"/>
-    <col customWidth="1" min="19" max="19" width="18.0"/>
-    <col customWidth="1" min="20" max="21" width="22.43"/>
-    <col customWidth="1" min="22" max="22" width="19.14"/>
-    <col customWidth="1" min="23" max="24" width="19.86"/>
-    <col customWidth="1" min="25" max="25" width="19.57"/>
-    <col customWidth="1" min="26" max="27" width="22.57"/>
-    <col customWidth="1" min="28" max="28" width="18.0"/>
-    <col customWidth="1" min="29" max="30" width="20.71"/>
-    <col customWidth="1" min="31" max="31" width="17.57"/>
-    <col customWidth="1" min="32" max="32" width="18.14"/>
-    <col customWidth="1" min="33" max="33" width="11.57"/>
-    <col customWidth="1" min="34" max="34" width="19.43"/>
-    <col customWidth="1" min="35" max="35" width="18.71"/>
-    <col customWidth="1" min="36" max="36" width="11.57"/>
-    <col customWidth="1" min="37" max="37" width="19.86"/>
-    <col customWidth="1" min="38" max="38" width="15.86"/>
-    <col customWidth="1" min="39" max="39" width="11.57"/>
-    <col customWidth="1" min="40" max="40" width="19.0"/>
-    <col customWidth="1" min="41" max="41" width="16.43"/>
+    <col min="1" max="1" width="43.7265625" customWidth="1"/>
+    <col min="2" max="2" width="18.08984375" customWidth="1"/>
+    <col min="3" max="3" width="76.26953125" customWidth="1"/>
+    <col min="4" max="4" width="19.453125" customWidth="1"/>
+    <col min="5" max="5" width="20.54296875" customWidth="1"/>
+    <col min="6" max="6" width="19.81640625" customWidth="1"/>
+    <col min="7" max="7" width="16.54296875" customWidth="1"/>
+    <col min="8" max="8" width="18.81640625" customWidth="1"/>
+    <col min="9" max="9" width="28.81640625" customWidth="1"/>
+    <col min="10" max="10" width="17.54296875" customWidth="1"/>
+    <col min="11" max="12" width="24.453125" customWidth="1"/>
+    <col min="13" max="13" width="17.81640625" customWidth="1"/>
+    <col min="14" max="15" width="26.08984375" customWidth="1"/>
+    <col min="16" max="16" width="18.26953125" customWidth="1"/>
+    <col min="17" max="18" width="23.81640625" customWidth="1"/>
+    <col min="19" max="19" width="18" customWidth="1"/>
+    <col min="20" max="21" width="22.453125" customWidth="1"/>
+    <col min="22" max="22" width="19.08984375" customWidth="1"/>
+    <col min="23" max="24" width="19.81640625" customWidth="1"/>
+    <col min="25" max="25" width="19.54296875" customWidth="1"/>
+    <col min="26" max="27" width="22.54296875" customWidth="1"/>
+    <col min="28" max="28" width="18" customWidth="1"/>
+    <col min="29" max="30" width="20.7265625" customWidth="1"/>
+    <col min="31" max="31" width="17.54296875" customWidth="1"/>
+    <col min="32" max="32" width="18.08984375" customWidth="1"/>
+    <col min="33" max="33" width="11.54296875" customWidth="1"/>
+    <col min="34" max="34" width="19.453125" customWidth="1"/>
+    <col min="35" max="35" width="18.7265625" customWidth="1"/>
+    <col min="36" max="36" width="11.54296875" customWidth="1"/>
+    <col min="37" max="37" width="19.81640625" customWidth="1"/>
+    <col min="38" max="38" width="15.81640625" customWidth="1"/>
+    <col min="39" max="39" width="11.54296875" customWidth="1"/>
+    <col min="40" max="40" width="19" customWidth="1"/>
+    <col min="41" max="41" width="16.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:41" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
-      <c r="AM2" s="2"/>
-      <c r="AN2" s="2"/>
-      <c r="AO2" s="2"/>
-    </row>
-    <row r="3" ht="12.75" customHeight="1"/>
-    <row r="4" ht="12.75" customHeight="1"/>
-    <row r="5" ht="12.75" customHeight="1"/>
-    <row r="6" ht="12.75" customHeight="1"/>
-    <row r="7" ht="12.75" customHeight="1"/>
-    <row r="8" ht="12.75" customHeight="1"/>
-    <row r="9" ht="12.75" customHeight="1"/>
-    <row r="10" ht="12.75" customHeight="1"/>
-    <row r="11" ht="12.75" customHeight="1"/>
-    <row r="12" ht="12.75" customHeight="1"/>
-    <row r="13" ht="12.75" customHeight="1"/>
-    <row r="14" ht="12.75" customHeight="1"/>
-    <row r="15" ht="12.75" customHeight="1"/>
-    <row r="16" ht="12.75" customHeight="1"/>
-    <row r="17" ht="12.75" customHeight="1"/>
-    <row r="18" ht="12.75" customHeight="1"/>
-    <row r="19" ht="12.75" customHeight="1"/>
-    <row r="20" ht="12.75" customHeight="1"/>
-    <row r="21" ht="12.75" customHeight="1"/>
-    <row r="22" ht="12.75" customHeight="1"/>
-    <row r="23" ht="12.75" customHeight="1"/>
-    <row r="24" ht="12.75" customHeight="1"/>
-    <row r="25" ht="12.75" customHeight="1"/>
-    <row r="26" ht="12.75" customHeight="1"/>
-    <row r="27" ht="12.75" customHeight="1"/>
-    <row r="28" ht="12.75" customHeight="1"/>
-    <row r="29" ht="12.75" customHeight="1"/>
-    <row r="30" ht="12.75" customHeight="1"/>
-    <row r="31" ht="12.75" customHeight="1"/>
-    <row r="32" ht="12.75" customHeight="1"/>
-    <row r="33" ht="12.75" customHeight="1"/>
-    <row r="34" ht="12.75" customHeight="1"/>
-    <row r="35" ht="12.75" customHeight="1"/>
-    <row r="36" ht="12.75" customHeight="1"/>
-    <row r="37" ht="12.75" customHeight="1"/>
-    <row r="38" ht="12.75" customHeight="1"/>
-    <row r="39" ht="12.75" customHeight="1"/>
-    <row r="40" ht="12.75" customHeight="1"/>
-    <row r="41" ht="12.75" customHeight="1"/>
-    <row r="42" ht="12.75" customHeight="1"/>
-    <row r="43" ht="12.75" customHeight="1"/>
-    <row r="44" ht="12.75" customHeight="1"/>
-    <row r="45" ht="12.75" customHeight="1"/>
-    <row r="46" ht="12.75" customHeight="1"/>
-    <row r="47" ht="12.75" customHeight="1"/>
-    <row r="48" ht="12.75" customHeight="1"/>
-    <row r="49" ht="12.75" customHeight="1"/>
-    <row r="50" ht="12.75" customHeight="1"/>
-    <row r="51" ht="12.75" customHeight="1"/>
-    <row r="52" ht="12.75" customHeight="1"/>
-    <row r="53" ht="12.75" customHeight="1"/>
-    <row r="54" ht="12.75" customHeight="1"/>
-    <row r="55" ht="12.75" customHeight="1"/>
-    <row r="56" ht="12.75" customHeight="1"/>
-    <row r="57" ht="12.75" customHeight="1"/>
-    <row r="58" ht="12.75" customHeight="1"/>
-    <row r="59" ht="12.75" customHeight="1"/>
-    <row r="60" ht="12.75" customHeight="1"/>
-    <row r="61" ht="12.75" customHeight="1"/>
-    <row r="62" ht="12.75" customHeight="1"/>
-    <row r="63" ht="12.75" customHeight="1"/>
-    <row r="64" ht="12.75" customHeight="1"/>
-    <row r="65" ht="12.75" customHeight="1"/>
-    <row r="66" ht="12.75" customHeight="1"/>
-    <row r="67" ht="12.75" customHeight="1"/>
-    <row r="68" ht="12.75" customHeight="1"/>
-    <row r="69" ht="12.75" customHeight="1"/>
-    <row r="70" ht="12.75" customHeight="1"/>
-    <row r="71" ht="12.75" customHeight="1"/>
-    <row r="72" ht="12.75" customHeight="1"/>
-    <row r="73" ht="12.75" customHeight="1"/>
-    <row r="74" ht="12.75" customHeight="1"/>
-    <row r="75" ht="12.75" customHeight="1"/>
-    <row r="76" ht="12.75" customHeight="1"/>
-    <row r="77" ht="12.75" customHeight="1"/>
-    <row r="78" ht="12.75" customHeight="1"/>
-    <row r="79" ht="12.75" customHeight="1"/>
-    <row r="80" ht="12.75" customHeight="1"/>
-    <row r="81" ht="12.75" customHeight="1"/>
-    <row r="82" ht="12.75" customHeight="1"/>
-    <row r="83" ht="12.75" customHeight="1"/>
-    <row r="84" ht="12.75" customHeight="1"/>
-    <row r="85" ht="12.75" customHeight="1"/>
-    <row r="86" ht="12.75" customHeight="1"/>
-    <row r="87" ht="12.75" customHeight="1"/>
-    <row r="88" ht="12.75" customHeight="1"/>
-    <row r="89" ht="12.75" customHeight="1"/>
-    <row r="90" ht="12.75" customHeight="1"/>
-    <row r="91" ht="12.75" customHeight="1"/>
-    <row r="92" ht="12.75" customHeight="1"/>
-    <row r="93" ht="12.75" customHeight="1"/>
-    <row r="94" ht="12.75" customHeight="1"/>
-    <row r="95" ht="12.75" customHeight="1"/>
-    <row r="96" ht="12.75" customHeight="1"/>
-    <row r="97" ht="12.75" customHeight="1"/>
-    <row r="98" ht="12.75" customHeight="1"/>
-    <row r="99" ht="12.75" customHeight="1"/>
-    <row r="100" ht="12.75" customHeight="1"/>
-    <row r="101" ht="12.75" customHeight="1"/>
-    <row r="102" ht="12.75" customHeight="1"/>
-    <row r="103" ht="12.75" customHeight="1"/>
-    <row r="104" ht="12.75" customHeight="1"/>
-    <row r="105" ht="12.75" customHeight="1"/>
-    <row r="106" ht="12.75" customHeight="1"/>
-    <row r="107" ht="12.75" customHeight="1"/>
-    <row r="108" ht="12.75" customHeight="1"/>
-    <row r="109" ht="12.75" customHeight="1"/>
-    <row r="110" ht="12.75" customHeight="1"/>
-    <row r="111" ht="12.75" customHeight="1"/>
-    <row r="112" ht="12.75" customHeight="1"/>
-    <row r="113" ht="12.75" customHeight="1"/>
-    <row r="114" ht="12.75" customHeight="1"/>
-    <row r="115" ht="12.75" customHeight="1"/>
-    <row r="116" ht="12.75" customHeight="1"/>
-    <row r="117" ht="12.75" customHeight="1"/>
-    <row r="118" ht="12.75" customHeight="1"/>
-    <row r="119" ht="12.75" customHeight="1"/>
-    <row r="120" ht="12.75" customHeight="1"/>
-    <row r="121" ht="12.75" customHeight="1"/>
-    <row r="122" ht="12.75" customHeight="1"/>
-    <row r="123" ht="12.75" customHeight="1"/>
-    <row r="124" ht="12.75" customHeight="1"/>
-    <row r="125" ht="12.75" customHeight="1"/>
-    <row r="126" ht="12.75" customHeight="1"/>
-    <row r="127" ht="12.75" customHeight="1"/>
-    <row r="128" ht="12.75" customHeight="1"/>
-    <row r="129" ht="12.75" customHeight="1"/>
-    <row r="130" ht="12.75" customHeight="1"/>
-    <row r="131" ht="12.75" customHeight="1"/>
-    <row r="132" ht="12.75" customHeight="1"/>
-    <row r="133" ht="12.75" customHeight="1"/>
-    <row r="134" ht="12.75" customHeight="1"/>
-    <row r="135" ht="12.75" customHeight="1"/>
-    <row r="136" ht="12.75" customHeight="1"/>
-    <row r="137" ht="12.75" customHeight="1"/>
-    <row r="138" ht="12.75" customHeight="1"/>
-    <row r="139" ht="12.75" customHeight="1"/>
-    <row r="140" ht="12.75" customHeight="1"/>
-    <row r="141" ht="12.75" customHeight="1"/>
-    <row r="142" ht="12.75" customHeight="1"/>
-    <row r="143" ht="12.75" customHeight="1"/>
-    <row r="144" ht="12.75" customHeight="1"/>
-    <row r="145" ht="12.75" customHeight="1"/>
-    <row r="146" ht="12.75" customHeight="1"/>
-    <row r="147" ht="12.75" customHeight="1"/>
-    <row r="148" ht="12.75" customHeight="1"/>
-    <row r="149" ht="12.75" customHeight="1"/>
-    <row r="150" ht="12.75" customHeight="1"/>
-    <row r="151" ht="12.75" customHeight="1"/>
-    <row r="152" ht="12.75" customHeight="1"/>
-    <row r="153" ht="12.75" customHeight="1"/>
-    <row r="154" ht="12.75" customHeight="1"/>
-    <row r="155" ht="12.75" customHeight="1"/>
-    <row r="156" ht="12.75" customHeight="1"/>
-    <row r="157" ht="12.75" customHeight="1"/>
-    <row r="158" ht="12.75" customHeight="1"/>
-    <row r="159" ht="12.75" customHeight="1"/>
-    <row r="160" ht="12.75" customHeight="1"/>
-    <row r="161" ht="12.75" customHeight="1"/>
-    <row r="162" ht="12.75" customHeight="1"/>
-    <row r="163" ht="12.75" customHeight="1"/>
-    <row r="164" ht="12.75" customHeight="1"/>
-    <row r="165" ht="12.75" customHeight="1"/>
-    <row r="166" ht="12.75" customHeight="1"/>
-    <row r="167" ht="12.75" customHeight="1"/>
-    <row r="168" ht="12.75" customHeight="1"/>
-    <row r="169" ht="12.75" customHeight="1"/>
-    <row r="170" ht="12.75" customHeight="1"/>
-    <row r="171" ht="12.75" customHeight="1"/>
-    <row r="172" ht="12.75" customHeight="1"/>
-    <row r="173" ht="12.75" customHeight="1"/>
-    <row r="174" ht="12.75" customHeight="1"/>
-    <row r="175" ht="12.75" customHeight="1"/>
-    <row r="176" ht="12.75" customHeight="1"/>
-    <row r="177" ht="12.75" customHeight="1"/>
-    <row r="178" ht="12.75" customHeight="1"/>
-    <row r="179" ht="12.75" customHeight="1"/>
-    <row r="180" ht="12.75" customHeight="1"/>
-    <row r="181" ht="12.75" customHeight="1"/>
-    <row r="182" ht="12.75" customHeight="1"/>
-    <row r="183" ht="12.75" customHeight="1"/>
-    <row r="184" ht="12.75" customHeight="1"/>
-    <row r="185" ht="12.75" customHeight="1"/>
-    <row r="186" ht="12.75" customHeight="1"/>
-    <row r="187" ht="12.75" customHeight="1"/>
-    <row r="188" ht="12.75" customHeight="1"/>
-    <row r="189" ht="12.75" customHeight="1"/>
-    <row r="190" ht="12.75" customHeight="1"/>
-    <row r="191" ht="12.75" customHeight="1"/>
-    <row r="192" ht="12.75" customHeight="1"/>
-    <row r="193" ht="12.75" customHeight="1"/>
-    <row r="194" ht="12.75" customHeight="1"/>
-    <row r="195" ht="12.75" customHeight="1"/>
-    <row r="196" ht="12.75" customHeight="1"/>
-    <row r="197" ht="12.75" customHeight="1"/>
-    <row r="198" ht="12.75" customHeight="1"/>
-    <row r="199" ht="12.75" customHeight="1"/>
-    <row r="200" ht="12.75" customHeight="1"/>
-    <row r="201" ht="12.75" customHeight="1"/>
-    <row r="202" ht="12.75" customHeight="1"/>
-    <row r="203" ht="12.75" customHeight="1"/>
-    <row r="204" ht="12.75" customHeight="1"/>
-    <row r="205" ht="12.75" customHeight="1"/>
-    <row r="206" ht="12.75" customHeight="1"/>
-    <row r="207" ht="12.75" customHeight="1"/>
-    <row r="208" ht="12.75" customHeight="1"/>
-    <row r="209" ht="12.75" customHeight="1"/>
-    <row r="210" ht="12.75" customHeight="1"/>
-    <row r="211" ht="12.75" customHeight="1"/>
-    <row r="212" ht="12.75" customHeight="1"/>
-    <row r="213" ht="12.75" customHeight="1"/>
-    <row r="214" ht="12.75" customHeight="1"/>
-    <row r="215" ht="12.75" customHeight="1"/>
-    <row r="216" ht="12.75" customHeight="1"/>
-    <row r="217" ht="12.75" customHeight="1"/>
-    <row r="218" ht="12.75" customHeight="1"/>
-    <row r="219" ht="12.75" customHeight="1"/>
-    <row r="220" ht="12.75" customHeight="1"/>
-    <row r="221" ht="12.75" customHeight="1"/>
-    <row r="222" ht="12.75" customHeight="1"/>
-    <row r="223" ht="12.75" customHeight="1"/>
-    <row r="224" ht="12.75" customHeight="1"/>
-    <row r="225" ht="12.75" customHeight="1"/>
-    <row r="226" ht="12.75" customHeight="1"/>
-    <row r="227" ht="12.75" customHeight="1"/>
-    <row r="228" ht="12.75" customHeight="1"/>
-    <row r="229" ht="12.75" customHeight="1"/>
-    <row r="230" ht="12.75" customHeight="1"/>
-    <row r="231" ht="12.75" customHeight="1"/>
-    <row r="232" ht="12.75" customHeight="1"/>
-    <row r="233" ht="12.75" customHeight="1"/>
-    <row r="234" ht="12.75" customHeight="1"/>
-    <row r="235" ht="12.75" customHeight="1"/>
-    <row r="236" ht="12.75" customHeight="1"/>
-    <row r="237" ht="12.75" customHeight="1"/>
-    <row r="238" ht="12.75" customHeight="1"/>
-    <row r="239" ht="12.75" customHeight="1"/>
-    <row r="240" ht="12.75" customHeight="1"/>
-    <row r="241" ht="12.75" customHeight="1"/>
-    <row r="242" ht="12.75" customHeight="1"/>
-    <row r="243" ht="12.75" customHeight="1"/>
-    <row r="244" ht="12.75" customHeight="1"/>
-    <row r="245" ht="12.75" customHeight="1"/>
-    <row r="246" ht="12.75" customHeight="1"/>
-    <row r="247" ht="12.75" customHeight="1"/>
-    <row r="248" ht="12.75" customHeight="1"/>
-    <row r="249" ht="12.75" customHeight="1"/>
-    <row r="250" ht="12.75" customHeight="1"/>
-    <row r="251" ht="12.75" customHeight="1"/>
-    <row r="252" ht="12.75" customHeight="1"/>
-    <row r="253" ht="12.75" customHeight="1"/>
-    <row r="254" ht="12.75" customHeight="1"/>
-    <row r="255" ht="12.75" customHeight="1"/>
-    <row r="256" ht="12.75" customHeight="1"/>
-    <row r="257" ht="12.75" customHeight="1"/>
-    <row r="258" ht="12.75" customHeight="1"/>
-    <row r="259" ht="12.75" customHeight="1"/>
-    <row r="260" ht="12.75" customHeight="1"/>
-    <row r="261" ht="12.75" customHeight="1"/>
-    <row r="262" ht="12.75" customHeight="1"/>
-    <row r="263" ht="12.75" customHeight="1"/>
-    <row r="264" ht="12.75" customHeight="1"/>
-    <row r="265" ht="12.75" customHeight="1"/>
-    <row r="266" ht="12.75" customHeight="1"/>
-    <row r="267" ht="12.75" customHeight="1"/>
-    <row r="268" ht="12.75" customHeight="1"/>
-    <row r="269" ht="12.75" customHeight="1"/>
-    <row r="270" ht="12.75" customHeight="1"/>
-    <row r="271" ht="12.75" customHeight="1"/>
-    <row r="272" ht="12.75" customHeight="1"/>
-    <row r="273" ht="12.75" customHeight="1"/>
-    <row r="274" ht="12.75" customHeight="1"/>
-    <row r="275" ht="12.75" customHeight="1"/>
-    <row r="276" ht="12.75" customHeight="1"/>
-    <row r="277" ht="12.75" customHeight="1"/>
-    <row r="278" ht="12.75" customHeight="1"/>
-    <row r="279" ht="12.75" customHeight="1"/>
-    <row r="280" ht="12.75" customHeight="1"/>
-    <row r="281" ht="12.75" customHeight="1"/>
-    <row r="282" ht="12.75" customHeight="1"/>
-    <row r="283" ht="12.75" customHeight="1"/>
-    <row r="284" ht="12.75" customHeight="1"/>
-    <row r="285" ht="12.75" customHeight="1"/>
-    <row r="286" ht="12.75" customHeight="1"/>
-    <row r="287" ht="12.75" customHeight="1"/>
-    <row r="288" ht="12.75" customHeight="1"/>
-    <row r="289" ht="12.75" customHeight="1"/>
-    <row r="290" ht="12.75" customHeight="1"/>
-    <row r="291" ht="12.75" customHeight="1"/>
-    <row r="292" ht="12.75" customHeight="1"/>
-    <row r="293" ht="12.75" customHeight="1"/>
-    <row r="294" ht="12.75" customHeight="1"/>
-    <row r="295" ht="12.75" customHeight="1"/>
-    <row r="296" ht="12.75" customHeight="1"/>
-    <row r="297" ht="12.75" customHeight="1"/>
-    <row r="298" ht="12.75" customHeight="1"/>
-    <row r="299" ht="12.75" customHeight="1"/>
-    <row r="300" ht="12.75" customHeight="1"/>
-    <row r="301" ht="12.75" customHeight="1"/>
-    <row r="302" ht="12.75" customHeight="1"/>
-    <row r="303" ht="12.75" customHeight="1"/>
-    <row r="304" ht="12.75" customHeight="1"/>
-    <row r="305" ht="12.75" customHeight="1"/>
-    <row r="306" ht="12.75" customHeight="1"/>
-    <row r="307" ht="12.75" customHeight="1"/>
-    <row r="308" ht="12.75" customHeight="1"/>
-    <row r="309" ht="12.75" customHeight="1"/>
-    <row r="310" ht="12.75" customHeight="1"/>
-    <row r="311" ht="12.75" customHeight="1"/>
-    <row r="312" ht="12.75" customHeight="1"/>
-    <row r="313" ht="12.75" customHeight="1"/>
-    <row r="314" ht="12.75" customHeight="1"/>
-    <row r="315" ht="12.75" customHeight="1"/>
-    <row r="316" ht="12.75" customHeight="1"/>
-    <row r="317" ht="12.75" customHeight="1"/>
-    <row r="318" ht="12.75" customHeight="1"/>
-    <row r="319" ht="12.75" customHeight="1"/>
-    <row r="320" ht="12.75" customHeight="1"/>
-    <row r="321" ht="12.75" customHeight="1"/>
-    <row r="322" ht="12.75" customHeight="1"/>
-    <row r="323" ht="12.75" customHeight="1"/>
-    <row r="324" ht="12.75" customHeight="1"/>
-    <row r="325" ht="12.75" customHeight="1"/>
-    <row r="326" ht="12.75" customHeight="1"/>
-    <row r="327" ht="12.75" customHeight="1"/>
-    <row r="328" ht="12.75" customHeight="1"/>
-    <row r="329" ht="12.75" customHeight="1"/>
-    <row r="330" ht="12.75" customHeight="1"/>
-    <row r="331" ht="12.75" customHeight="1"/>
-    <row r="332" ht="12.75" customHeight="1"/>
-    <row r="333" ht="12.75" customHeight="1"/>
-    <row r="334" ht="12.75" customHeight="1"/>
-    <row r="335" ht="12.75" customHeight="1"/>
-    <row r="336" ht="12.75" customHeight="1"/>
-    <row r="337" ht="12.75" customHeight="1"/>
-    <row r="338" ht="12.75" customHeight="1"/>
-    <row r="339" ht="12.75" customHeight="1"/>
-    <row r="340" ht="12.75" customHeight="1"/>
-    <row r="341" ht="12.75" customHeight="1"/>
-    <row r="342" ht="12.75" customHeight="1"/>
-    <row r="343" ht="12.75" customHeight="1"/>
-    <row r="344" ht="12.75" customHeight="1"/>
-    <row r="345" ht="12.75" customHeight="1"/>
-    <row r="346" ht="12.75" customHeight="1"/>
-    <row r="347" ht="12.75" customHeight="1"/>
-    <row r="348" ht="12.75" customHeight="1"/>
-    <row r="349" ht="12.75" customHeight="1"/>
-    <row r="350" ht="12.75" customHeight="1"/>
-    <row r="351" ht="12.75" customHeight="1"/>
-    <row r="352" ht="12.75" customHeight="1"/>
-    <row r="353" ht="12.75" customHeight="1"/>
-    <row r="354" ht="12.75" customHeight="1"/>
-    <row r="355" ht="12.75" customHeight="1"/>
-    <row r="356" ht="12.75" customHeight="1"/>
-    <row r="357" ht="12.75" customHeight="1"/>
-    <row r="358" ht="12.75" customHeight="1"/>
-    <row r="359" ht="12.75" customHeight="1"/>
-    <row r="360" ht="12.75" customHeight="1"/>
-    <row r="361" ht="12.75" customHeight="1"/>
-    <row r="362" ht="12.75" customHeight="1"/>
-    <row r="363" ht="12.75" customHeight="1"/>
-    <row r="364" ht="12.75" customHeight="1"/>
-    <row r="365" ht="12.75" customHeight="1"/>
-    <row r="366" ht="12.75" customHeight="1"/>
-    <row r="367" ht="12.75" customHeight="1"/>
-    <row r="368" ht="12.75" customHeight="1"/>
-    <row r="369" ht="12.75" customHeight="1"/>
-    <row r="370" ht="12.75" customHeight="1"/>
-    <row r="371" ht="12.75" customHeight="1"/>
-    <row r="372" ht="12.75" customHeight="1"/>
-    <row r="373" ht="12.75" customHeight="1"/>
-    <row r="374" ht="12.75" customHeight="1"/>
-    <row r="375" ht="12.75" customHeight="1"/>
-    <row r="376" ht="12.75" customHeight="1"/>
-    <row r="377" ht="12.75" customHeight="1"/>
-    <row r="378" ht="12.75" customHeight="1"/>
-    <row r="379" ht="12.75" customHeight="1"/>
-    <row r="380" ht="12.75" customHeight="1"/>
-    <row r="381" ht="12.75" customHeight="1"/>
-    <row r="382" ht="12.75" customHeight="1"/>
-    <row r="383" ht="12.75" customHeight="1"/>
-    <row r="384" ht="12.75" customHeight="1"/>
-    <row r="385" ht="12.75" customHeight="1"/>
-    <row r="386" ht="12.75" customHeight="1"/>
-    <row r="387" ht="12.75" customHeight="1"/>
-    <row r="388" ht="12.75" customHeight="1"/>
-    <row r="389" ht="12.75" customHeight="1"/>
-    <row r="390" ht="12.75" customHeight="1"/>
-    <row r="391" ht="12.75" customHeight="1"/>
-    <row r="392" ht="12.75" customHeight="1"/>
-    <row r="393" ht="12.75" customHeight="1"/>
-    <row r="394" ht="12.75" customHeight="1"/>
-    <row r="395" ht="12.75" customHeight="1"/>
-    <row r="396" ht="12.75" customHeight="1"/>
-    <row r="397" ht="12.75" customHeight="1"/>
-    <row r="398" ht="12.75" customHeight="1"/>
-    <row r="399" ht="12.75" customHeight="1"/>
-    <row r="400" ht="12.75" customHeight="1"/>
-    <row r="401" ht="12.75" customHeight="1"/>
-    <row r="402" ht="12.75" customHeight="1"/>
-    <row r="403" ht="12.75" customHeight="1"/>
-    <row r="404" ht="12.75" customHeight="1"/>
-    <row r="405" ht="12.75" customHeight="1"/>
-    <row r="406" ht="12.75" customHeight="1"/>
-    <row r="407" ht="12.75" customHeight="1"/>
-    <row r="408" ht="12.75" customHeight="1"/>
-    <row r="409" ht="12.75" customHeight="1"/>
-    <row r="410" ht="12.75" customHeight="1"/>
-    <row r="411" ht="12.75" customHeight="1"/>
-    <row r="412" ht="12.75" customHeight="1"/>
-    <row r="413" ht="12.75" customHeight="1"/>
-    <row r="414" ht="12.75" customHeight="1"/>
-    <row r="415" ht="12.75" customHeight="1"/>
-    <row r="416" ht="12.75" customHeight="1"/>
-    <row r="417" ht="12.75" customHeight="1"/>
-    <row r="418" ht="12.75" customHeight="1"/>
-    <row r="419" ht="12.75" customHeight="1"/>
-    <row r="420" ht="12.75" customHeight="1"/>
-    <row r="421" ht="12.75" customHeight="1"/>
-    <row r="422" ht="12.75" customHeight="1"/>
-    <row r="423" ht="12.75" customHeight="1"/>
-    <row r="424" ht="12.75" customHeight="1"/>
-    <row r="425" ht="12.75" customHeight="1"/>
-    <row r="426" ht="12.75" customHeight="1"/>
-    <row r="427" ht="12.75" customHeight="1"/>
-    <row r="428" ht="12.75" customHeight="1"/>
-    <row r="429" ht="12.75" customHeight="1"/>
-    <row r="430" ht="12.75" customHeight="1"/>
-    <row r="431" ht="12.75" customHeight="1"/>
-    <row r="432" ht="12.75" customHeight="1"/>
-    <row r="433" ht="12.75" customHeight="1"/>
-    <row r="434" ht="12.75" customHeight="1"/>
-    <row r="435" ht="12.75" customHeight="1"/>
-    <row r="436" ht="12.75" customHeight="1"/>
-    <row r="437" ht="12.75" customHeight="1"/>
-    <row r="438" ht="12.75" customHeight="1"/>
-    <row r="439" ht="12.75" customHeight="1"/>
-    <row r="440" ht="12.75" customHeight="1"/>
-    <row r="441" ht="12.75" customHeight="1"/>
-    <row r="442" ht="12.75" customHeight="1"/>
-    <row r="443" ht="12.75" customHeight="1"/>
-    <row r="444" ht="12.75" customHeight="1"/>
-    <row r="445" ht="12.75" customHeight="1"/>
-    <row r="446" ht="12.75" customHeight="1"/>
-    <row r="447" ht="12.75" customHeight="1"/>
-    <row r="448" ht="12.75" customHeight="1"/>
-    <row r="449" ht="12.75" customHeight="1"/>
-    <row r="450" ht="12.75" customHeight="1"/>
-    <row r="451" ht="12.75" customHeight="1"/>
-    <row r="452" ht="12.75" customHeight="1"/>
-    <row r="453" ht="12.75" customHeight="1"/>
-    <row r="454" ht="12.75" customHeight="1"/>
-    <row r="455" ht="12.75" customHeight="1"/>
-    <row r="456" ht="12.75" customHeight="1"/>
-    <row r="457" ht="12.75" customHeight="1"/>
-    <row r="458" ht="12.75" customHeight="1"/>
-    <row r="459" ht="12.75" customHeight="1"/>
-    <row r="460" ht="12.75" customHeight="1"/>
-    <row r="461" ht="12.75" customHeight="1"/>
-    <row r="462" ht="12.75" customHeight="1"/>
-    <row r="463" ht="12.75" customHeight="1"/>
-    <row r="464" ht="12.75" customHeight="1"/>
-    <row r="465" ht="12.75" customHeight="1"/>
-    <row r="466" ht="12.75" customHeight="1"/>
-    <row r="467" ht="12.75" customHeight="1"/>
-    <row r="468" ht="12.75" customHeight="1"/>
-    <row r="469" ht="12.75" customHeight="1"/>
-    <row r="470" ht="12.75" customHeight="1"/>
-    <row r="471" ht="12.75" customHeight="1"/>
-    <row r="472" ht="12.75" customHeight="1"/>
-    <row r="473" ht="12.75" customHeight="1"/>
-    <row r="474" ht="12.75" customHeight="1"/>
-    <row r="475" ht="12.75" customHeight="1"/>
-    <row r="476" ht="12.75" customHeight="1"/>
-    <row r="477" ht="12.75" customHeight="1"/>
-    <row r="478" ht="12.75" customHeight="1"/>
-    <row r="479" ht="12.75" customHeight="1"/>
-    <row r="480" ht="12.75" customHeight="1"/>
-    <row r="481" ht="12.75" customHeight="1"/>
-    <row r="482" ht="12.75" customHeight="1"/>
-    <row r="483" ht="12.75" customHeight="1"/>
-    <row r="484" ht="12.75" customHeight="1"/>
-    <row r="485" ht="12.75" customHeight="1"/>
-    <row r="486" ht="12.75" customHeight="1"/>
-    <row r="487" ht="12.75" customHeight="1"/>
-    <row r="488" ht="12.75" customHeight="1"/>
-    <row r="489" ht="12.75" customHeight="1"/>
-    <row r="490" ht="12.75" customHeight="1"/>
-    <row r="491" ht="12.75" customHeight="1"/>
-    <row r="492" ht="12.75" customHeight="1"/>
-    <row r="493" ht="12.75" customHeight="1"/>
-    <row r="494" ht="12.75" customHeight="1"/>
-    <row r="495" ht="12.75" customHeight="1"/>
-    <row r="496" ht="12.75" customHeight="1"/>
-    <row r="497" ht="12.75" customHeight="1"/>
-    <row r="498" ht="12.75" customHeight="1"/>
-    <row r="499" ht="12.75" customHeight="1"/>
-    <row r="500" ht="12.75" customHeight="1"/>
-    <row r="501" ht="12.75" customHeight="1"/>
-    <row r="502" ht="12.75" customHeight="1"/>
-    <row r="503" ht="12.75" customHeight="1"/>
-    <row r="504" ht="12.75" customHeight="1"/>
-    <row r="505" ht="12.75" customHeight="1"/>
-    <row r="506" ht="12.75" customHeight="1"/>
-    <row r="507" ht="12.75" customHeight="1"/>
-    <row r="508" ht="12.75" customHeight="1"/>
-    <row r="509" ht="12.75" customHeight="1"/>
-    <row r="510" ht="12.75" customHeight="1"/>
-    <row r="511" ht="12.75" customHeight="1"/>
-    <row r="512" ht="12.75" customHeight="1"/>
-    <row r="513" ht="12.75" customHeight="1"/>
-    <row r="514" ht="12.75" customHeight="1"/>
-    <row r="515" ht="12.75" customHeight="1"/>
-    <row r="516" ht="12.75" customHeight="1"/>
-    <row r="517" ht="12.75" customHeight="1"/>
-    <row r="518" ht="12.75" customHeight="1"/>
-    <row r="519" ht="12.75" customHeight="1"/>
-    <row r="520" ht="12.75" customHeight="1"/>
-    <row r="521" ht="12.75" customHeight="1"/>
-    <row r="522" ht="12.75" customHeight="1"/>
-    <row r="523" ht="12.75" customHeight="1"/>
-    <row r="524" ht="12.75" customHeight="1"/>
-    <row r="525" ht="12.75" customHeight="1"/>
-    <row r="526" ht="12.75" customHeight="1"/>
-    <row r="527" ht="12.75" customHeight="1"/>
-    <row r="528" ht="12.75" customHeight="1"/>
-    <row r="529" ht="12.75" customHeight="1"/>
-    <row r="530" ht="12.75" customHeight="1"/>
-    <row r="531" ht="12.75" customHeight="1"/>
-    <row r="532" ht="12.75" customHeight="1"/>
-    <row r="533" ht="12.75" customHeight="1"/>
-    <row r="534" ht="12.75" customHeight="1"/>
-    <row r="535" ht="12.75" customHeight="1"/>
-    <row r="536" ht="12.75" customHeight="1"/>
-    <row r="537" ht="12.75" customHeight="1"/>
-    <row r="538" ht="12.75" customHeight="1"/>
-    <row r="539" ht="12.75" customHeight="1"/>
-    <row r="540" ht="12.75" customHeight="1"/>
-    <row r="541" ht="12.75" customHeight="1"/>
-    <row r="542" ht="12.75" customHeight="1"/>
-    <row r="543" ht="12.75" customHeight="1"/>
-    <row r="544" ht="12.75" customHeight="1"/>
-    <row r="545" ht="12.75" customHeight="1"/>
-    <row r="546" ht="12.75" customHeight="1"/>
-    <row r="547" ht="12.75" customHeight="1"/>
-    <row r="548" ht="12.75" customHeight="1"/>
-    <row r="549" ht="12.75" customHeight="1"/>
-    <row r="550" ht="12.75" customHeight="1"/>
-    <row r="551" ht="12.75" customHeight="1"/>
-    <row r="552" ht="12.75" customHeight="1"/>
-    <row r="553" ht="12.75" customHeight="1"/>
-    <row r="554" ht="12.75" customHeight="1"/>
-    <row r="555" ht="12.75" customHeight="1"/>
-    <row r="556" ht="12.75" customHeight="1"/>
-    <row r="557" ht="12.75" customHeight="1"/>
-    <row r="558" ht="12.75" customHeight="1"/>
-    <row r="559" ht="12.75" customHeight="1"/>
-    <row r="560" ht="12.75" customHeight="1"/>
-    <row r="561" ht="12.75" customHeight="1"/>
-    <row r="562" ht="12.75" customHeight="1"/>
-    <row r="563" ht="12.75" customHeight="1"/>
-    <row r="564" ht="12.75" customHeight="1"/>
-    <row r="565" ht="12.75" customHeight="1"/>
-    <row r="566" ht="12.75" customHeight="1"/>
-    <row r="567" ht="12.75" customHeight="1"/>
-    <row r="568" ht="12.75" customHeight="1"/>
-    <row r="569" ht="12.75" customHeight="1"/>
-    <row r="570" ht="12.75" customHeight="1"/>
-    <row r="571" ht="12.75" customHeight="1"/>
-    <row r="572" ht="12.75" customHeight="1"/>
-    <row r="573" ht="12.75" customHeight="1"/>
-    <row r="574" ht="12.75" customHeight="1"/>
-    <row r="575" ht="12.75" customHeight="1"/>
-    <row r="576" ht="12.75" customHeight="1"/>
-    <row r="577" ht="12.75" customHeight="1"/>
-    <row r="578" ht="12.75" customHeight="1"/>
-    <row r="579" ht="12.75" customHeight="1"/>
-    <row r="580" ht="12.75" customHeight="1"/>
-    <row r="581" ht="12.75" customHeight="1"/>
-    <row r="582" ht="12.75" customHeight="1"/>
-    <row r="583" ht="12.75" customHeight="1"/>
-    <row r="584" ht="12.75" customHeight="1"/>
-    <row r="585" ht="12.75" customHeight="1"/>
-    <row r="586" ht="12.75" customHeight="1"/>
-    <row r="587" ht="12.75" customHeight="1"/>
-    <row r="588" ht="12.75" customHeight="1"/>
-    <row r="589" ht="12.75" customHeight="1"/>
-    <row r="590" ht="12.75" customHeight="1"/>
-    <row r="591" ht="12.75" customHeight="1"/>
-    <row r="592" ht="12.75" customHeight="1"/>
-    <row r="593" ht="12.75" customHeight="1"/>
-    <row r="594" ht="12.75" customHeight="1"/>
-    <row r="595" ht="12.75" customHeight="1"/>
-    <row r="596" ht="12.75" customHeight="1"/>
-    <row r="597" ht="12.75" customHeight="1"/>
-    <row r="598" ht="12.75" customHeight="1"/>
-    <row r="599" ht="12.75" customHeight="1"/>
-    <row r="600" ht="12.75" customHeight="1"/>
-    <row r="601" ht="12.75" customHeight="1"/>
-    <row r="602" ht="12.75" customHeight="1"/>
-    <row r="603" ht="12.75" customHeight="1"/>
-    <row r="604" ht="12.75" customHeight="1"/>
-    <row r="605" ht="12.75" customHeight="1"/>
-    <row r="606" ht="12.75" customHeight="1"/>
-    <row r="607" ht="12.75" customHeight="1"/>
-    <row r="608" ht="12.75" customHeight="1"/>
-    <row r="609" ht="12.75" customHeight="1"/>
-    <row r="610" ht="12.75" customHeight="1"/>
-    <row r="611" ht="12.75" customHeight="1"/>
-    <row r="612" ht="12.75" customHeight="1"/>
-    <row r="613" ht="12.75" customHeight="1"/>
-    <row r="614" ht="12.75" customHeight="1"/>
-    <row r="615" ht="12.75" customHeight="1"/>
-    <row r="616" ht="12.75" customHeight="1"/>
-    <row r="617" ht="12.75" customHeight="1"/>
-    <row r="618" ht="12.75" customHeight="1"/>
-    <row r="619" ht="12.75" customHeight="1"/>
-    <row r="620" ht="12.75" customHeight="1"/>
-    <row r="621" ht="12.75" customHeight="1"/>
-    <row r="622" ht="12.75" customHeight="1"/>
-    <row r="623" ht="12.75" customHeight="1"/>
-    <row r="624" ht="12.75" customHeight="1"/>
-    <row r="625" ht="12.75" customHeight="1"/>
-    <row r="626" ht="12.75" customHeight="1"/>
-    <row r="627" ht="12.75" customHeight="1"/>
-    <row r="628" ht="12.75" customHeight="1"/>
-    <row r="629" ht="12.75" customHeight="1"/>
-    <row r="630" ht="12.75" customHeight="1"/>
-    <row r="631" ht="12.75" customHeight="1"/>
-    <row r="632" ht="12.75" customHeight="1"/>
-    <row r="633" ht="12.75" customHeight="1"/>
-    <row r="634" ht="12.75" customHeight="1"/>
-    <row r="635" ht="12.75" customHeight="1"/>
-    <row r="636" ht="12.75" customHeight="1"/>
-    <row r="637" ht="12.75" customHeight="1"/>
-    <row r="638" ht="12.75" customHeight="1"/>
-    <row r="639" ht="12.75" customHeight="1"/>
-    <row r="640" ht="12.75" customHeight="1"/>
-    <row r="641" ht="12.75" customHeight="1"/>
-    <row r="642" ht="12.75" customHeight="1"/>
-    <row r="643" ht="12.75" customHeight="1"/>
-    <row r="644" ht="12.75" customHeight="1"/>
-    <row r="645" ht="12.75" customHeight="1"/>
-    <row r="646" ht="12.75" customHeight="1"/>
-    <row r="647" ht="12.75" customHeight="1"/>
-    <row r="648" ht="12.75" customHeight="1"/>
-    <row r="649" ht="12.75" customHeight="1"/>
-    <row r="650" ht="12.75" customHeight="1"/>
-    <row r="651" ht="12.75" customHeight="1"/>
-    <row r="652" ht="12.75" customHeight="1"/>
-    <row r="653" ht="12.75" customHeight="1"/>
-    <row r="654" ht="12.75" customHeight="1"/>
-    <row r="655" ht="12.75" customHeight="1"/>
-    <row r="656" ht="12.75" customHeight="1"/>
-    <row r="657" ht="12.75" customHeight="1"/>
-    <row r="658" ht="12.75" customHeight="1"/>
-    <row r="659" ht="12.75" customHeight="1"/>
-    <row r="660" ht="12.75" customHeight="1"/>
-    <row r="661" ht="12.75" customHeight="1"/>
-    <row r="662" ht="12.75" customHeight="1"/>
-    <row r="663" ht="12.75" customHeight="1"/>
-    <row r="664" ht="12.75" customHeight="1"/>
-    <row r="665" ht="12.75" customHeight="1"/>
-    <row r="666" ht="12.75" customHeight="1"/>
-    <row r="667" ht="12.75" customHeight="1"/>
-    <row r="668" ht="12.75" customHeight="1"/>
-    <row r="669" ht="12.75" customHeight="1"/>
-    <row r="670" ht="12.75" customHeight="1"/>
-    <row r="671" ht="12.75" customHeight="1"/>
-    <row r="672" ht="12.75" customHeight="1"/>
-    <row r="673" ht="12.75" customHeight="1"/>
-    <row r="674" ht="12.75" customHeight="1"/>
-    <row r="675" ht="12.75" customHeight="1"/>
-    <row r="676" ht="12.75" customHeight="1"/>
-    <row r="677" ht="12.75" customHeight="1"/>
-    <row r="678" ht="12.75" customHeight="1"/>
-    <row r="679" ht="12.75" customHeight="1"/>
-    <row r="680" ht="12.75" customHeight="1"/>
-    <row r="681" ht="12.75" customHeight="1"/>
-    <row r="682" ht="12.75" customHeight="1"/>
-    <row r="683" ht="12.75" customHeight="1"/>
-    <row r="684" ht="12.75" customHeight="1"/>
-    <row r="685" ht="12.75" customHeight="1"/>
-    <row r="686" ht="12.75" customHeight="1"/>
-    <row r="687" ht="12.75" customHeight="1"/>
-    <row r="688" ht="12.75" customHeight="1"/>
-    <row r="689" ht="12.75" customHeight="1"/>
-    <row r="690" ht="12.75" customHeight="1"/>
-    <row r="691" ht="12.75" customHeight="1"/>
-    <row r="692" ht="12.75" customHeight="1"/>
-    <row r="693" ht="12.75" customHeight="1"/>
-    <row r="694" ht="12.75" customHeight="1"/>
-    <row r="695" ht="12.75" customHeight="1"/>
-    <row r="696" ht="12.75" customHeight="1"/>
-    <row r="697" ht="12.75" customHeight="1"/>
-    <row r="698" ht="12.75" customHeight="1"/>
-    <row r="699" ht="12.75" customHeight="1"/>
-    <row r="700" ht="12.75" customHeight="1"/>
-    <row r="701" ht="12.75" customHeight="1"/>
-    <row r="702" ht="12.75" customHeight="1"/>
-    <row r="703" ht="12.75" customHeight="1"/>
-    <row r="704" ht="12.75" customHeight="1"/>
-    <row r="705" ht="12.75" customHeight="1"/>
-    <row r="706" ht="12.75" customHeight="1"/>
-    <row r="707" ht="12.75" customHeight="1"/>
-    <row r="708" ht="12.75" customHeight="1"/>
-    <row r="709" ht="12.75" customHeight="1"/>
-    <row r="710" ht="12.75" customHeight="1"/>
-    <row r="711" ht="12.75" customHeight="1"/>
-    <row r="712" ht="12.75" customHeight="1"/>
-    <row r="713" ht="12.75" customHeight="1"/>
-    <row r="714" ht="12.75" customHeight="1"/>
-    <row r="715" ht="12.75" customHeight="1"/>
-    <row r="716" ht="12.75" customHeight="1"/>
-    <row r="717" ht="12.75" customHeight="1"/>
-    <row r="718" ht="12.75" customHeight="1"/>
-    <row r="719" ht="12.75" customHeight="1"/>
-    <row r="720" ht="12.75" customHeight="1"/>
-    <row r="721" ht="12.75" customHeight="1"/>
-    <row r="722" ht="12.75" customHeight="1"/>
-    <row r="723" ht="12.75" customHeight="1"/>
-    <row r="724" ht="12.75" customHeight="1"/>
-    <row r="725" ht="12.75" customHeight="1"/>
-    <row r="726" ht="12.75" customHeight="1"/>
-    <row r="727" ht="12.75" customHeight="1"/>
-    <row r="728" ht="12.75" customHeight="1"/>
-    <row r="729" ht="12.75" customHeight="1"/>
-    <row r="730" ht="12.75" customHeight="1"/>
-    <row r="731" ht="12.75" customHeight="1"/>
-    <row r="732" ht="12.75" customHeight="1"/>
-    <row r="733" ht="12.75" customHeight="1"/>
-    <row r="734" ht="12.75" customHeight="1"/>
-    <row r="735" ht="12.75" customHeight="1"/>
-    <row r="736" ht="12.75" customHeight="1"/>
-    <row r="737" ht="12.75" customHeight="1"/>
-    <row r="738" ht="12.75" customHeight="1"/>
-    <row r="739" ht="12.75" customHeight="1"/>
-    <row r="740" ht="12.75" customHeight="1"/>
-    <row r="741" ht="12.75" customHeight="1"/>
-    <row r="742" ht="12.75" customHeight="1"/>
-    <row r="743" ht="12.75" customHeight="1"/>
-    <row r="744" ht="12.75" customHeight="1"/>
-    <row r="745" ht="12.75" customHeight="1"/>
-    <row r="746" ht="12.75" customHeight="1"/>
-    <row r="747" ht="12.75" customHeight="1"/>
-    <row r="748" ht="12.75" customHeight="1"/>
-    <row r="749" ht="12.75" customHeight="1"/>
-    <row r="750" ht="12.75" customHeight="1"/>
-    <row r="751" ht="12.75" customHeight="1"/>
-    <row r="752" ht="12.75" customHeight="1"/>
-    <row r="753" ht="12.75" customHeight="1"/>
-    <row r="754" ht="12.75" customHeight="1"/>
-    <row r="755" ht="12.75" customHeight="1"/>
-    <row r="756" ht="12.75" customHeight="1"/>
-    <row r="757" ht="12.75" customHeight="1"/>
-    <row r="758" ht="12.75" customHeight="1"/>
-    <row r="759" ht="12.75" customHeight="1"/>
-    <row r="760" ht="12.75" customHeight="1"/>
-    <row r="761" ht="12.75" customHeight="1"/>
-    <row r="762" ht="12.75" customHeight="1"/>
-    <row r="763" ht="12.75" customHeight="1"/>
-    <row r="764" ht="12.75" customHeight="1"/>
-    <row r="765" ht="12.75" customHeight="1"/>
-    <row r="766" ht="12.75" customHeight="1"/>
-    <row r="767" ht="12.75" customHeight="1"/>
-    <row r="768" ht="12.75" customHeight="1"/>
-    <row r="769" ht="12.75" customHeight="1"/>
-    <row r="770" ht="12.75" customHeight="1"/>
-    <row r="771" ht="12.75" customHeight="1"/>
-    <row r="772" ht="12.75" customHeight="1"/>
-    <row r="773" ht="12.75" customHeight="1"/>
-    <row r="774" ht="12.75" customHeight="1"/>
-    <row r="775" ht="12.75" customHeight="1"/>
-    <row r="776" ht="12.75" customHeight="1"/>
-    <row r="777" ht="12.75" customHeight="1"/>
-    <row r="778" ht="12.75" customHeight="1"/>
-    <row r="779" ht="12.75" customHeight="1"/>
-    <row r="780" ht="12.75" customHeight="1"/>
-    <row r="781" ht="12.75" customHeight="1"/>
-    <row r="782" ht="12.75" customHeight="1"/>
-    <row r="783" ht="12.75" customHeight="1"/>
-    <row r="784" ht="12.75" customHeight="1"/>
-    <row r="785" ht="12.75" customHeight="1"/>
-    <row r="786" ht="12.75" customHeight="1"/>
-    <row r="787" ht="12.75" customHeight="1"/>
-    <row r="788" ht="12.75" customHeight="1"/>
-    <row r="789" ht="12.75" customHeight="1"/>
-    <row r="790" ht="12.75" customHeight="1"/>
-    <row r="791" ht="12.75" customHeight="1"/>
-    <row r="792" ht="12.75" customHeight="1"/>
-    <row r="793" ht="12.75" customHeight="1"/>
-    <row r="794" ht="12.75" customHeight="1"/>
-    <row r="795" ht="12.75" customHeight="1"/>
-    <row r="796" ht="12.75" customHeight="1"/>
-    <row r="797" ht="12.75" customHeight="1"/>
-    <row r="798" ht="12.75" customHeight="1"/>
-    <row r="799" ht="12.75" customHeight="1"/>
-    <row r="800" ht="12.75" customHeight="1"/>
-    <row r="801" ht="12.75" customHeight="1"/>
-    <row r="802" ht="12.75" customHeight="1"/>
-    <row r="803" ht="12.75" customHeight="1"/>
-    <row r="804" ht="12.75" customHeight="1"/>
-    <row r="805" ht="12.75" customHeight="1"/>
-    <row r="806" ht="12.75" customHeight="1"/>
-    <row r="807" ht="12.75" customHeight="1"/>
-    <row r="808" ht="12.75" customHeight="1"/>
-    <row r="809" ht="12.75" customHeight="1"/>
-    <row r="810" ht="12.75" customHeight="1"/>
-    <row r="811" ht="12.75" customHeight="1"/>
-    <row r="812" ht="12.75" customHeight="1"/>
-    <row r="813" ht="12.75" customHeight="1"/>
-    <row r="814" ht="12.75" customHeight="1"/>
-    <row r="815" ht="12.75" customHeight="1"/>
-    <row r="816" ht="12.75" customHeight="1"/>
-    <row r="817" ht="12.75" customHeight="1"/>
-    <row r="818" ht="12.75" customHeight="1"/>
-    <row r="819" ht="12.75" customHeight="1"/>
-    <row r="820" ht="12.75" customHeight="1"/>
-    <row r="821" ht="12.75" customHeight="1"/>
-    <row r="822" ht="12.75" customHeight="1"/>
-    <row r="823" ht="12.75" customHeight="1"/>
-    <row r="824" ht="12.75" customHeight="1"/>
-    <row r="825" ht="12.75" customHeight="1"/>
-    <row r="826" ht="12.75" customHeight="1"/>
-    <row r="827" ht="12.75" customHeight="1"/>
-    <row r="828" ht="12.75" customHeight="1"/>
-    <row r="829" ht="12.75" customHeight="1"/>
-    <row r="830" ht="12.75" customHeight="1"/>
-    <row r="831" ht="12.75" customHeight="1"/>
-    <row r="832" ht="12.75" customHeight="1"/>
-    <row r="833" ht="12.75" customHeight="1"/>
-    <row r="834" ht="12.75" customHeight="1"/>
-    <row r="835" ht="12.75" customHeight="1"/>
-    <row r="836" ht="12.75" customHeight="1"/>
-    <row r="837" ht="12.75" customHeight="1"/>
-    <row r="838" ht="12.75" customHeight="1"/>
-    <row r="839" ht="12.75" customHeight="1"/>
-    <row r="840" ht="12.75" customHeight="1"/>
-    <row r="841" ht="12.75" customHeight="1"/>
-    <row r="842" ht="12.75" customHeight="1"/>
-    <row r="843" ht="12.75" customHeight="1"/>
-    <row r="844" ht="12.75" customHeight="1"/>
-    <row r="845" ht="12.75" customHeight="1"/>
-    <row r="846" ht="12.75" customHeight="1"/>
-    <row r="847" ht="12.75" customHeight="1"/>
-    <row r="848" ht="12.75" customHeight="1"/>
-    <row r="849" ht="12.75" customHeight="1"/>
-    <row r="850" ht="12.75" customHeight="1"/>
-    <row r="851" ht="12.75" customHeight="1"/>
-    <row r="852" ht="12.75" customHeight="1"/>
-    <row r="853" ht="12.75" customHeight="1"/>
-    <row r="854" ht="12.75" customHeight="1"/>
-    <row r="855" ht="12.75" customHeight="1"/>
-    <row r="856" ht="12.75" customHeight="1"/>
-    <row r="857" ht="12.75" customHeight="1"/>
-    <row r="858" ht="12.75" customHeight="1"/>
-    <row r="859" ht="12.75" customHeight="1"/>
-    <row r="860" ht="12.75" customHeight="1"/>
-    <row r="861" ht="12.75" customHeight="1"/>
-    <row r="862" ht="12.75" customHeight="1"/>
-    <row r="863" ht="12.75" customHeight="1"/>
-    <row r="864" ht="12.75" customHeight="1"/>
-    <row r="865" ht="12.75" customHeight="1"/>
-    <row r="866" ht="12.75" customHeight="1"/>
-    <row r="867" ht="12.75" customHeight="1"/>
-    <row r="868" ht="12.75" customHeight="1"/>
-    <row r="869" ht="12.75" customHeight="1"/>
-    <row r="870" ht="12.75" customHeight="1"/>
-    <row r="871" ht="12.75" customHeight="1"/>
-    <row r="872" ht="12.75" customHeight="1"/>
-    <row r="873" ht="12.75" customHeight="1"/>
-    <row r="874" ht="12.75" customHeight="1"/>
-    <row r="875" ht="12.75" customHeight="1"/>
-    <row r="876" ht="12.75" customHeight="1"/>
-    <row r="877" ht="12.75" customHeight="1"/>
-    <row r="878" ht="12.75" customHeight="1"/>
-    <row r="879" ht="12.75" customHeight="1"/>
-    <row r="880" ht="12.75" customHeight="1"/>
-    <row r="881" ht="12.75" customHeight="1"/>
-    <row r="882" ht="12.75" customHeight="1"/>
-    <row r="883" ht="12.75" customHeight="1"/>
-    <row r="884" ht="12.75" customHeight="1"/>
-    <row r="885" ht="12.75" customHeight="1"/>
-    <row r="886" ht="12.75" customHeight="1"/>
-    <row r="887" ht="12.75" customHeight="1"/>
-    <row r="888" ht="12.75" customHeight="1"/>
-    <row r="889" ht="12.75" customHeight="1"/>
-    <row r="890" ht="12.75" customHeight="1"/>
-    <row r="891" ht="12.75" customHeight="1"/>
-    <row r="892" ht="12.75" customHeight="1"/>
-    <row r="893" ht="12.75" customHeight="1"/>
-    <row r="894" ht="12.75" customHeight="1"/>
-    <row r="895" ht="12.75" customHeight="1"/>
-    <row r="896" ht="12.75" customHeight="1"/>
-    <row r="897" ht="12.75" customHeight="1"/>
-    <row r="898" ht="12.75" customHeight="1"/>
-    <row r="899" ht="12.75" customHeight="1"/>
-    <row r="900" ht="12.75" customHeight="1"/>
-    <row r="901" ht="12.75" customHeight="1"/>
-    <row r="902" ht="12.75" customHeight="1"/>
-    <row r="903" ht="12.75" customHeight="1"/>
-    <row r="904" ht="12.75" customHeight="1"/>
-    <row r="905" ht="12.75" customHeight="1"/>
-    <row r="906" ht="12.75" customHeight="1"/>
-    <row r="907" ht="12.75" customHeight="1"/>
-    <row r="908" ht="12.75" customHeight="1"/>
-    <row r="909" ht="12.75" customHeight="1"/>
-    <row r="910" ht="12.75" customHeight="1"/>
-    <row r="911" ht="12.75" customHeight="1"/>
-    <row r="912" ht="12.75" customHeight="1"/>
-    <row r="913" ht="12.75" customHeight="1"/>
-    <row r="914" ht="12.75" customHeight="1"/>
-    <row r="915" ht="12.75" customHeight="1"/>
-    <row r="916" ht="12.75" customHeight="1"/>
-    <row r="917" ht="12.75" customHeight="1"/>
-    <row r="918" ht="12.75" customHeight="1"/>
-    <row r="919" ht="12.75" customHeight="1"/>
-    <row r="920" ht="12.75" customHeight="1"/>
-    <row r="921" ht="12.75" customHeight="1"/>
-    <row r="922" ht="12.75" customHeight="1"/>
-    <row r="923" ht="12.75" customHeight="1"/>
-    <row r="924" ht="12.75" customHeight="1"/>
-    <row r="925" ht="12.75" customHeight="1"/>
-    <row r="926" ht="12.75" customHeight="1"/>
-    <row r="927" ht="12.75" customHeight="1"/>
-    <row r="928" ht="12.75" customHeight="1"/>
-    <row r="929" ht="12.75" customHeight="1"/>
-    <row r="930" ht="12.75" customHeight="1"/>
-    <row r="931" ht="12.75" customHeight="1"/>
-    <row r="932" ht="12.75" customHeight="1"/>
-    <row r="933" ht="12.75" customHeight="1"/>
-    <row r="934" ht="12.75" customHeight="1"/>
-    <row r="935" ht="12.75" customHeight="1"/>
-    <row r="936" ht="12.75" customHeight="1"/>
-    <row r="937" ht="12.75" customHeight="1"/>
-    <row r="938" ht="12.75" customHeight="1"/>
-    <row r="939" ht="12.75" customHeight="1"/>
-    <row r="940" ht="12.75" customHeight="1"/>
-    <row r="941" ht="12.75" customHeight="1"/>
-    <row r="942" ht="12.75" customHeight="1"/>
-    <row r="943" ht="12.75" customHeight="1"/>
-    <row r="944" ht="12.75" customHeight="1"/>
-    <row r="945" ht="12.75" customHeight="1"/>
-    <row r="946" ht="12.75" customHeight="1"/>
-    <row r="947" ht="12.75" customHeight="1"/>
-    <row r="948" ht="12.75" customHeight="1"/>
-    <row r="949" ht="12.75" customHeight="1"/>
-    <row r="950" ht="12.75" customHeight="1"/>
-    <row r="951" ht="12.75" customHeight="1"/>
-    <row r="952" ht="12.75" customHeight="1"/>
-    <row r="953" ht="12.75" customHeight="1"/>
-    <row r="954" ht="12.75" customHeight="1"/>
-    <row r="955" ht="12.75" customHeight="1"/>
-    <row r="956" ht="12.75" customHeight="1"/>
-    <row r="957" ht="12.75" customHeight="1"/>
-    <row r="958" ht="12.75" customHeight="1"/>
-    <row r="959" ht="12.75" customHeight="1"/>
-    <row r="960" ht="12.75" customHeight="1"/>
-    <row r="961" ht="12.75" customHeight="1"/>
-    <row r="962" ht="12.75" customHeight="1"/>
-    <row r="963" ht="12.75" customHeight="1"/>
-    <row r="964" ht="12.75" customHeight="1"/>
-    <row r="965" ht="12.75" customHeight="1"/>
-    <row r="966" ht="12.75" customHeight="1"/>
-    <row r="967" ht="12.75" customHeight="1"/>
-    <row r="968" ht="12.75" customHeight="1"/>
-    <row r="969" ht="12.75" customHeight="1"/>
-    <row r="970" ht="12.75" customHeight="1"/>
-    <row r="971" ht="12.75" customHeight="1"/>
-    <row r="972" ht="12.75" customHeight="1"/>
-    <row r="973" ht="12.75" customHeight="1"/>
-    <row r="974" ht="12.75" customHeight="1"/>
-    <row r="975" ht="12.75" customHeight="1"/>
-    <row r="976" ht="12.75" customHeight="1"/>
-    <row r="977" ht="12.75" customHeight="1"/>
-    <row r="978" ht="12.75" customHeight="1"/>
-    <row r="979" ht="12.75" customHeight="1"/>
-    <row r="980" ht="12.75" customHeight="1"/>
-    <row r="981" ht="12.75" customHeight="1"/>
-    <row r="982" ht="12.75" customHeight="1"/>
-    <row r="983" ht="12.75" customHeight="1"/>
-    <row r="984" ht="12.75" customHeight="1"/>
-    <row r="985" ht="12.75" customHeight="1"/>
-    <row r="986" ht="12.75" customHeight="1"/>
-    <row r="987" ht="12.75" customHeight="1"/>
-    <row r="988" ht="12.75" customHeight="1"/>
-    <row r="989" ht="12.75" customHeight="1"/>
-    <row r="990" ht="12.75" customHeight="1"/>
-    <row r="991" ht="12.75" customHeight="1"/>
-    <row r="992" ht="12.75" customHeight="1"/>
-    <row r="993" ht="12.75" customHeight="1"/>
-    <row r="994" ht="12.75" customHeight="1"/>
-    <row r="995" ht="12.75" customHeight="1"/>
-    <row r="996" ht="12.75" customHeight="1"/>
-    <row r="997" ht="12.75" customHeight="1"/>
-    <row r="998" ht="12.75" customHeight="1"/>
-    <row r="999" ht="12.75" customHeight="1"/>
-    <row r="1000" ht="12.75" customHeight="1"/>
+    <row r="2" spans="1:41" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="4"/>
+      <c r="AO2" s="4"/>
+    </row>
+    <row r="3" spans="1:41" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:41" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:41" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:41" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:41" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:41" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:41" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:41" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:41" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:41" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:41" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:41" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:41" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:41" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="C2">
-      <formula1>"Licenciatura en Comercio Exterior,Economía,Licenciatura en Finanzas,Licenciatura en Mercadotecnia,Licenciatura en Turismo,Licenciatura en Administracion de Empresas,Ingenieria en Software,Ingenieria en Telecomunicaciones,Licenciatura en Contabilidad y Aud"&amp;"itoria,Ingenieria en Tecnologias de La Información,Ingenieria en Logística y Transporte,Licenciatura en Comunicación,Licenciatura en Gestión y Talento Humano,Licenciatura en Administración Portuaria y Aduanera,Administración de Empresas,Finanzas en con Me"&amp;"nción en Tributación,Marketing,Sistema de Información Gerencial,Gestión de Empresas Turísticas,Gestión del Talento Humano,Dirección Estratégica en Empresas Familiares,Gestión en Procesos Organizacionales,Negocios Internacionales,Educación,Mercadotecnia,Di"&amp;"rección de Empresas,Economía Mención Economía Empresarial y Negocios,Ingeniería en Comercio Exterior Mención Negocios Internacionales,Ingeniería en Contaduría Pública y Auditoría,Ingeniería en Gestión Empresarial Mención Finanzas y Auditoría,Ingeniería en"&amp;" Gestión Empresarial Mención Marketing y Ventas,Ingeniería en Sistemas Computacionales Mención Aplicaciones Web y Multimedia,Ingeniería en Sistemas Computacionales Mención Redes y Comunicaciones,Licenciatura en Comercio Exterior Mención Negocios Internaci"&amp;"onales,Licenciatura en Contaduría Pública y Auditoría,Licenciatura en Gestión Empresarial Mención Marketing y Ventas,Licenciatura en Gestión Empresarial Mención Finanzas y Auditoría,Psicología Laboral y Empresarial,Ingenieria Portuaria y Aduanera Mencion "&amp;"Administracion Portuaria,Licenciatura Portuaria y Aduanera Mencion Administracion Portuaria,Ingenieria en Gestión de Telecomunicaciones Mención Redes de Acceso y Telefonía,Derecho Constitucional,Administración Pública mención Desarrollo Institucional,Inge"&amp;"niería en Gestión Hotelera y Turística,Licenciatura en Gestión Hotelera y Turística,Gestión en Proyectos,Derecho,Educación Báscica,Gestión Social y Desarrollo,Gestión de riesgos y desastres,Ingeniería Ambiental,Ingeniería en Sistemas de Información,Ingeni"&amp;"ería Industrial,Multimedia y Producción audiovisual,Nutrición y Dietética,Pedagogía en lengua y literatura,Pedagogía Técnica de la Mecatrónica,Pscicología,Puertos y Aduanas,Relaciones Internaciones,Tecnologías de la Información,Educación,Negocios electrón"&amp;"icos,Desarrollo local,Turismo,Telecomunicaciones con Mención en Gestión de las Telecomunicaciones"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions/>
-  <pageMargins bottom="1.05277777777778" footer="0.0" header="0.0" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPágina &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{30F65064-56A4-4589-8C03-E24CB5F405C7}">
+          <x14:formula1>
+            <xm:f>carreras!$A$1:$A$66</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{05618D14-0C5C-424B-9D43-6F101F41B731}">
+          <x14:formula1>
+            <xm:f>codigo_malla!$A$1:$A$26</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E55852C-8D37-4685-BBE4-9181F82C4361}">
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="75.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>732</v>
+      </c>
+      <c r="B1" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>734</v>
+      </c>
+      <c r="B2" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>736</v>
+      </c>
+      <c r="B3" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>738</v>
+      </c>
+      <c r="B4" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>740</v>
+      </c>
+      <c r="B5" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>742</v>
+      </c>
+      <c r="B6" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>744</v>
+      </c>
+      <c r="B7" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>746</v>
+      </c>
+      <c r="B8" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>748</v>
+      </c>
+      <c r="B9" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>749</v>
+      </c>
+      <c r="B10" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>751</v>
+      </c>
+      <c r="B11" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>753</v>
+      </c>
+      <c r="B12" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>755</v>
+      </c>
+      <c r="B13" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>757</v>
+      </c>
+      <c r="B14" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>759</v>
+      </c>
+      <c r="B15" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>761</v>
+      </c>
+      <c r="B16" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>763</v>
+      </c>
+      <c r="B17" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>765</v>
+      </c>
+      <c r="B18" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>767</v>
+      </c>
+      <c r="B19" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>769</v>
+      </c>
+      <c r="B20" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>771</v>
+      </c>
+      <c r="B21" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>773</v>
+      </c>
+      <c r="B22" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>775</v>
+      </c>
+      <c r="B23" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>777</v>
+      </c>
+      <c r="B24" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>779</v>
+      </c>
+      <c r="B25" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>781</v>
+      </c>
+      <c r="B26" t="s">
+        <v>782</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB23068F-F791-4667-8596-B99E76A49D2F}">
+  <dimension ref="A1:A66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="69.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>730</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:A625"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="68.0"/>
+    <col min="1" max="1" width="68" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="5" t="s">
+    <row r="31" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="5" t="s">
+    <row r="32" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="5" t="s">
+    <row r="33" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="5" t="s">
+    <row r="35" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="5" t="s">
+    <row r="36" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="5" t="s">
+    <row r="37" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="5" t="s">
+    <row r="38" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="5" t="s">
+    <row r="39" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="5" t="s">
+    <row r="40" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="5" t="s">
+    <row r="41" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="5" t="s">
+    <row r="42" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="5" t="s">
+    <row r="43" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="5" t="s">
+    <row r="44" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="5" t="s">
+    <row r="45" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="5" t="s">
+    <row r="46" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="5" t="s">
+    <row r="47" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="5" t="s">
+    <row r="48" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="5" t="s">
+    <row r="49" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="5" t="s">
+    <row r="50" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="5" t="s">
+    <row r="51" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="5" t="s">
+    <row r="52" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="5" t="s">
+    <row r="53" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="5" t="s">
+    <row r="54" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="5" t="s">
+    <row r="55" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="5" t="s">
+    <row r="56" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="5" t="s">
+    <row r="57" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="5" t="s">
+    <row r="58" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="5" t="s">
+    <row r="59" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="5" t="s">
+    <row r="60" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="5" t="s">
+    <row r="61" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="5" t="s">
+    <row r="62" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="5" t="s">
+    <row r="63" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="5" t="s">
+    <row r="64" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="5" t="s">
+    <row r="65" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="5" t="s">
+    <row r="66" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="5" t="s">
+    <row r="67" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="5" t="s">
+    <row r="68" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="5" t="s">
+    <row r="69" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="5" t="s">
+    <row r="70" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="5" t="s">
+    <row r="71" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="5" t="s">
+    <row r="72" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="5" t="s">
+    <row r="73" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="5" t="s">
+    <row r="74" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="5" t="s">
+    <row r="75" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="5" t="s">
+    <row r="76" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="5" t="s">
+    <row r="77" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="5" t="s">
+    <row r="78" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="5" t="s">
+    <row r="79" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="5" t="s">
+    <row r="80" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="5" t="s">
+    <row r="81" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="5" t="s">
+    <row r="82" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="5" t="s">
+    <row r="83" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="5" t="s">
+    <row r="84" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="5" t="s">
+    <row r="85" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="5" t="s">
+    <row r="86" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="5" t="s">
+    <row r="87" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="5" t="s">
+    <row r="88" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="5" t="s">
+    <row r="89" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="5" t="s">
+    <row r="90" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="5" t="s">
+    <row r="91" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="5" t="s">
+    <row r="92" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="5" t="s">
+    <row r="93" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="5" t="s">
+    <row r="94" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="5" t="s">
+    <row r="95" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="5" t="s">
+    <row r="96" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="5" t="s">
+    <row r="97" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="5" t="s">
+    <row r="98" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="5" t="s">
+    <row r="99" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="5" t="s">
+    <row r="100" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="5" t="s">
+    <row r="101" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="5" t="s">
+    <row r="102" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="5" t="s">
+    <row r="103" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="5" t="s">
+    <row r="104" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="5" t="s">
+    <row r="105" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="5" t="s">
+    <row r="106" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="5" t="s">
+    <row r="107" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="5" t="s">
+    <row r="108" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="5" t="s">
+    <row r="109" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="5" t="s">
+    <row r="110" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="5" t="s">
+    <row r="111" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="5" t="s">
+    <row r="112" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="5" t="s">
+    <row r="113" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="5" t="s">
+    <row r="114" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="5" t="s">
+    <row r="115" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="5" t="s">
+    <row r="116" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A116" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="5" t="s">
+    <row r="117" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="5" t="s">
+    <row r="118" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="5" t="s">
+    <row r="119" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="5" t="s">
+    <row r="120" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A120" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="5" t="s">
+    <row r="121" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A121" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="5" t="s">
+    <row r="122" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A122" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="5" t="s">
+    <row r="123" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A123" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="5" t="s">
+    <row r="124" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A124" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="5" t="s">
+    <row r="125" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A125" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="5" t="s">
+    <row r="126" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A126" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="5" t="s">
+    <row r="127" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A127" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="5" t="s">
+    <row r="128" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A128" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="5" t="s">
+    <row r="129" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A129" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="5" t="s">
+    <row r="130" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A130" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="5" t="s">
+    <row r="131" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A131" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="5" t="s">
+    <row r="132" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A132" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="5" t="s">
+    <row r="133" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A133" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="5" t="s">
+    <row r="134" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A134" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="5" t="s">
+    <row r="135" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A135" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="5" t="s">
+    <row r="136" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A136" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="5" t="s">
+    <row r="137" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A137" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="5" t="s">
+    <row r="138" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A138" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="5" t="s">
+    <row r="139" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A139" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="5" t="s">
+    <row r="140" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A140" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="5" t="s">
+    <row r="141" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A141" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="5" t="s">
+    <row r="142" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A142" s="2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="5" t="s">
+    <row r="143" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A143" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="5" t="s">
+    <row r="144" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A144" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="5" t="s">
+    <row r="145" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A145" s="2" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="5" t="s">
+    <row r="146" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A146" s="2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="5" t="s">
+    <row r="147" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A147" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="5" t="s">
+    <row r="148" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A148" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="5" t="s">
+    <row r="149" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A149" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" s="5" t="s">
+    <row r="150" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A150" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" s="5" t="s">
+    <row r="151" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A151" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" s="5" t="s">
+    <row r="152" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A152" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="5" t="s">
+    <row r="153" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A153" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="5" t="s">
+    <row r="154" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A154" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="5" t="s">
+    <row r="155" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A155" s="2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="5" t="s">
+    <row r="156" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A156" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" s="5" t="s">
+    <row r="157" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A157" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="5" t="s">
+    <row r="158" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A158" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="5" t="s">
+    <row r="159" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A159" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="5" t="s">
+    <row r="160" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A160" s="2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="5" t="s">
+    <row r="161" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A161" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="5" t="s">
+    <row r="162" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A162" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="5" t="s">
+    <row r="163" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A163" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="5" t="s">
+    <row r="164" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A164" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="5" t="s">
+    <row r="165" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A165" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="5" t="s">
+    <row r="166" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A166" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="5" t="s">
+    <row r="167" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A167" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" s="5" t="s">
+    <row r="168" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A168" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" s="5" t="s">
+    <row r="169" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A169" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" s="5" t="s">
+    <row r="170" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A170" s="2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" s="5" t="s">
+    <row r="171" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A171" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" s="5" t="s">
+    <row r="172" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A172" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="5" t="s">
+    <row r="173" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A173" s="2" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" s="5" t="s">
+    <row r="174" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A174" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="5" t="s">
+    <row r="175" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A175" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" s="5" t="s">
+    <row r="176" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A176" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" s="5" t="s">
+    <row r="177" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A177" s="2" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="5" t="s">
+    <row r="178" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A178" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" s="5" t="s">
+    <row r="179" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A179" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" s="5" t="s">
+    <row r="180" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A180" s="2" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" s="5" t="s">
+    <row r="181" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A181" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="5" t="s">
+    <row r="182" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A182" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" s="5" t="s">
+    <row r="183" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A183" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" s="5" t="s">
+    <row r="184" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A184" s="2" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" s="5" t="s">
+    <row r="185" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A185" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" s="5" t="s">
+    <row r="186" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A186" s="2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" s="5" t="s">
+    <row r="187" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A187" s="2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" s="5" t="s">
+    <row r="188" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A188" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" s="5" t="s">
+    <row r="189" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A189" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" s="5" t="s">
+    <row r="190" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A190" s="2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" s="5" t="s">
+    <row r="191" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A191" s="2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" s="5" t="s">
+    <row r="192" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A192" s="2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" s="5" t="s">
+    <row r="193" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A193" s="2" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" s="5" t="s">
+    <row r="194" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A194" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" s="5" t="s">
+    <row r="195" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A195" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" s="5" t="s">
+    <row r="196" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A196" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" s="5" t="s">
+    <row r="197" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A197" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" s="5" t="s">
+    <row r="198" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A198" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" s="5" t="s">
+    <row r="199" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A199" s="2" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" s="5" t="s">
+    <row r="200" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A200" s="2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" s="5" t="s">
+    <row r="201" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A201" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" s="5" t="s">
+    <row r="202" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A202" s="2" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" s="5" t="s">
+    <row r="203" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A203" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" s="5" t="s">
+    <row r="204" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A204" s="2" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" s="5" t="s">
+    <row r="205" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A205" s="2" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" s="5" t="s">
+    <row r="206" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A206" s="2" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" s="5" t="s">
+    <row r="207" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A207" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" s="5" t="s">
+    <row r="208" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A208" s="2" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" s="5" t="s">
+    <row r="209" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A209" s="2" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" s="5" t="s">
+    <row r="210" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A210" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" s="5" t="s">
+    <row r="211" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A211" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" s="5" t="s">
+    <row r="212" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A212" s="2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" s="5" t="s">
+    <row r="213" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A213" s="2" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" s="5" t="s">
+    <row r="214" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A214" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" s="5" t="s">
+    <row r="215" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A215" s="2" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" s="5" t="s">
+    <row r="216" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A216" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" s="5" t="s">
+    <row r="217" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A217" s="2" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" s="5" t="s">
+    <row r="218" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A218" s="2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" s="5" t="s">
+    <row r="219" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A219" s="2" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" s="5" t="s">
+    <row r="220" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A220" s="2" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" s="5" t="s">
+    <row r="221" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A221" s="2" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" s="5" t="s">
+    <row r="222" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A222" s="2" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" s="5" t="s">
+    <row r="223" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A223" s="2" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" s="5" t="s">
+    <row r="224" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A224" s="2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" s="5" t="s">
+    <row r="225" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A225" s="2" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" s="5" t="s">
+    <row r="226" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A226" s="2" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" s="5" t="s">
+    <row r="227" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A227" s="2" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" s="5" t="s">
+    <row r="228" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A228" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" s="5" t="s">
+    <row r="229" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A229" s="2" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" s="5" t="s">
+    <row r="230" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A230" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" s="5" t="s">
+    <row r="231" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A231" s="2" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" s="5" t="s">
+    <row r="232" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A232" s="2" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" s="5" t="s">
+    <row r="233" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A233" s="2" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" s="5" t="s">
+    <row r="234" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A234" s="2" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" s="5" t="s">
+    <row r="235" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A235" s="2" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" s="5" t="s">
+    <row r="236" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A236" s="2" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" s="5" t="s">
+    <row r="237" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A237" s="2" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" s="5" t="s">
+    <row r="238" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A238" s="2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" s="5" t="s">
+    <row r="239" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A239" s="2" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="240">
-      <c r="A240" s="5" t="s">
+    <row r="240" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A240" s="2" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" s="5" t="s">
+    <row r="241" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A241" s="2" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="242">
-      <c r="A242" s="5" t="s">
+    <row r="242" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A242" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="243">
-      <c r="A243" s="5" t="s">
+    <row r="243" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A243" s="2" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" s="5" t="s">
+    <row r="244" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A244" s="2" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" s="5" t="s">
+    <row r="245" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A245" s="2" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" s="5" t="s">
+    <row r="246" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A246" s="2" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" s="5" t="s">
+    <row r="247" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A247" s="2" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" s="5" t="s">
+    <row r="248" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A248" s="2" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" s="5" t="s">
+    <row r="249" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A249" s="2" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="250">
-      <c r="A250" s="5" t="s">
+    <row r="250" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A250" s="2" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" s="5" t="s">
+    <row r="251" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A251" s="2" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" s="5" t="s">
+    <row r="252" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A252" s="2" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="253">
-      <c r="A253" s="5" t="s">
+    <row r="253" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A253" s="2" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="254">
-      <c r="A254" s="5" t="s">
+    <row r="254" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A254" s="2" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="255">
-      <c r="A255" s="5" t="s">
+    <row r="255" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A255" s="2" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="256">
-      <c r="A256" s="5" t="s">
+    <row r="256" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A256" s="2" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="257">
-      <c r="A257" s="5" t="s">
+    <row r="257" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A257" s="2" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="258">
-      <c r="A258" s="5" t="s">
+    <row r="258" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A258" s="2" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="259">
-      <c r="A259" s="5" t="s">
+    <row r="259" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A259" s="2" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="260">
-      <c r="A260" s="5" t="s">
+    <row r="260" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A260" s="2" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="261">
-      <c r="A261" s="5" t="s">
+    <row r="261" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A261" s="2" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="262">
-      <c r="A262" s="5" t="s">
+    <row r="262" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A262" s="2" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="263">
-      <c r="A263" s="5" t="s">
+    <row r="263" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A263" s="2" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="264">
-      <c r="A264" s="5" t="s">
+    <row r="264" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A264" s="2" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="265">
-      <c r="A265" s="5" t="s">
+    <row r="265" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A265" s="2" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="266">
-      <c r="A266" s="5" t="s">
+    <row r="266" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A266" s="2" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="267">
-      <c r="A267" s="5" t="s">
+    <row r="267" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A267" s="2" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="268">
-      <c r="A268" s="5" t="s">
+    <row r="268" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A268" s="2" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="269">
-      <c r="A269" s="5" t="s">
+    <row r="269" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A269" s="2" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="270">
-      <c r="A270" s="5" t="s">
+    <row r="270" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A270" s="2" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="271">
-      <c r="A271" s="5" t="s">
+    <row r="271" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A271" s="2" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="272">
-      <c r="A272" s="5" t="s">
+    <row r="272" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A272" s="2" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="273">
-      <c r="A273" s="5" t="s">
+    <row r="273" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A273" s="2" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="274">
-      <c r="A274" s="5" t="s">
+    <row r="274" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A274" s="2" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="275">
-      <c r="A275" s="5" t="s">
+    <row r="275" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A275" s="2" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="276">
-      <c r="A276" s="5" t="s">
+    <row r="276" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A276" s="2" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="277">
-      <c r="A277" s="5" t="s">
+    <row r="277" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A277" s="2" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="278">
-      <c r="A278" s="5" t="s">
+    <row r="278" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A278" s="2" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="279">
-      <c r="A279" s="5" t="s">
+    <row r="279" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A279" s="2" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="280">
-      <c r="A280" s="5" t="s">
+    <row r="280" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A280" s="2" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="281">
-      <c r="A281" s="5" t="s">
+    <row r="281" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A281" s="2" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="282">
-      <c r="A282" s="5" t="s">
+    <row r="282" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A282" s="2" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="283">
-      <c r="A283" s="5" t="s">
+    <row r="283" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A283" s="2" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="284">
-      <c r="A284" s="5" t="s">
+    <row r="284" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A284" s="2" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="285">
-      <c r="A285" s="5" t="s">
+    <row r="285" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A285" s="2" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="286">
-      <c r="A286" s="5" t="s">
+    <row r="286" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A286" s="2" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="287">
-      <c r="A287" s="5" t="s">
+    <row r="287" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A287" s="2" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="288">
-      <c r="A288" s="5" t="s">
+    <row r="288" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A288" s="2" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="289">
-      <c r="A289" s="5" t="s">
+    <row r="289" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A289" s="2" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="290">
-      <c r="A290" s="5" t="s">
+    <row r="290" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A290" s="2" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="291">
-      <c r="A291" s="5" t="s">
+    <row r="291" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A291" s="2" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="292">
-      <c r="A292" s="5" t="s">
+    <row r="292" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A292" s="2" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="293">
-      <c r="A293" s="5" t="s">
+    <row r="293" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A293" s="2" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="294">
-      <c r="A294" s="5" t="s">
+    <row r="294" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A294" s="2" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="295">
-      <c r="A295" s="5" t="s">
+    <row r="295" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A295" s="2" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="296">
-      <c r="A296" s="5" t="s">
+    <row r="296" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A296" s="2" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="297">
-      <c r="A297" s="5" t="s">
+    <row r="297" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A297" s="2" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="298">
-      <c r="A298" s="5" t="s">
+    <row r="298" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A298" s="2" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="299">
-      <c r="A299" s="5" t="s">
+    <row r="299" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A299" s="2" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="300">
-      <c r="A300" s="5" t="s">
+    <row r="300" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A300" s="2" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="301">
-      <c r="A301" s="5" t="s">
+    <row r="301" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A301" s="2" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="302">
-      <c r="A302" s="5" t="s">
+    <row r="302" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A302" s="2" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="303">
-      <c r="A303" s="5" t="s">
+    <row r="303" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A303" s="2" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="304">
-      <c r="A304" s="5" t="s">
+    <row r="304" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A304" s="2" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="305">
-      <c r="A305" s="5" t="s">
+    <row r="305" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A305" s="2" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="306">
-      <c r="A306" s="5" t="s">
+    <row r="306" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A306" s="2" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="307">
-      <c r="A307" s="5" t="s">
+    <row r="307" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A307" s="2" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="308">
-      <c r="A308" s="5" t="s">
+    <row r="308" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A308" s="2" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="309">
-      <c r="A309" s="5" t="s">
+    <row r="309" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A309" s="2" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="310">
-      <c r="A310" s="5" t="s">
+    <row r="310" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A310" s="2" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="311">
-      <c r="A311" s="5" t="s">
+    <row r="311" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A311" s="2" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="312">
-      <c r="A312" s="5" t="s">
+    <row r="312" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A312" s="2" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="313">
-      <c r="A313" s="5" t="s">
+    <row r="313" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A313" s="2" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="314">
-      <c r="A314" s="5" t="s">
+    <row r="314" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A314" s="2" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="315">
-      <c r="A315" s="5" t="s">
+    <row r="315" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A315" s="2" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="316">
-      <c r="A316" s="5" t="s">
+    <row r="316" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A316" s="2" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="317">
-      <c r="A317" s="5" t="s">
+    <row r="317" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A317" s="2" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="318">
-      <c r="A318" s="5" t="s">
+    <row r="318" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A318" s="2" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="319">
-      <c r="A319" s="5" t="s">
+    <row r="319" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A319" s="2" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="320">
-      <c r="A320" s="5" t="s">
+    <row r="320" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A320" s="2" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="321">
-      <c r="A321" s="5" t="s">
+    <row r="321" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A321" s="2" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="322">
-      <c r="A322" s="5" t="s">
+    <row r="322" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A322" s="2" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="323">
-      <c r="A323" s="5" t="s">
+    <row r="323" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A323" s="2" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="324">
-      <c r="A324" s="5" t="s">
+    <row r="324" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A324" s="2" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="325">
-      <c r="A325" s="5" t="s">
+    <row r="325" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A325" s="2" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="326">
-      <c r="A326" s="5" t="s">
+    <row r="326" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A326" s="2" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="327">
-      <c r="A327" s="5" t="s">
+    <row r="327" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A327" s="2" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="328">
-      <c r="A328" s="5" t="s">
+    <row r="328" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A328" s="2" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="329">
-      <c r="A329" s="5" t="s">
+    <row r="329" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A329" s="2" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="330">
-      <c r="A330" s="5" t="s">
+    <row r="330" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A330" s="2" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="331">
-      <c r="A331" s="5" t="s">
+    <row r="331" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A331" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="332">
-      <c r="A332" s="5" t="s">
+    <row r="332" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A332" s="2" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="333">
-      <c r="A333" s="5" t="s">
+    <row r="333" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A333" s="2" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="334">
-      <c r="A334" s="5" t="s">
+    <row r="334" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A334" s="2" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="335">
-      <c r="A335" s="5" t="s">
+    <row r="335" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A335" s="2" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="336">
-      <c r="A336" s="5" t="s">
+    <row r="336" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A336" s="2" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="337">
-      <c r="A337" s="5" t="s">
+    <row r="337" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A337" s="2" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="338">
-      <c r="A338" s="5" t="s">
+    <row r="338" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A338" s="2" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="339">
-      <c r="A339" s="5" t="s">
+    <row r="339" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A339" s="2" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="340">
-      <c r="A340" s="5" t="s">
+    <row r="340" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A340" s="2" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="341">
-      <c r="A341" s="5" t="s">
+    <row r="341" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A341" s="2" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="342">
-      <c r="A342" s="5" t="s">
+    <row r="342" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A342" s="2" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="343">
-      <c r="A343" s="5" t="s">
+    <row r="343" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A343" s="2" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="344">
-      <c r="A344" s="5" t="s">
+    <row r="344" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A344" s="2" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="345">
-      <c r="A345" s="5" t="s">
+    <row r="345" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A345" s="2" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="346">
-      <c r="A346" s="5" t="s">
+    <row r="346" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A346" s="2" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="347">
-      <c r="A347" s="5" t="s">
+    <row r="347" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A347" s="2" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="348">
-      <c r="A348" s="5" t="s">
+    <row r="348" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A348" s="2" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="349">
-      <c r="A349" s="5" t="s">
+    <row r="349" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A349" s="2" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="350">
-      <c r="A350" s="5" t="s">
+    <row r="350" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A350" s="2" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="351">
-      <c r="A351" s="5" t="s">
+    <row r="351" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A351" s="2" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="352">
-      <c r="A352" s="5" t="s">
+    <row r="352" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A352" s="2" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="353">
-      <c r="A353" s="5" t="s">
+    <row r="353" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A353" s="2" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="354">
-      <c r="A354" s="5" t="s">
+    <row r="354" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A354" s="2" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="355">
-      <c r="A355" s="5" t="s">
+    <row r="355" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A355" s="2" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="356">
-      <c r="A356" s="5" t="s">
+    <row r="356" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A356" s="2" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="357">
-      <c r="A357" s="5" t="s">
+    <row r="357" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A357" s="2" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="358">
-      <c r="A358" s="5" t="s">
+    <row r="358" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A358" s="2" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="359">
-      <c r="A359" s="5" t="s">
+    <row r="359" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A359" s="2" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="360">
-      <c r="A360" s="5" t="s">
+    <row r="360" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A360" s="2" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="361">
-      <c r="A361" s="5" t="s">
+    <row r="361" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A361" s="2" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="362">
-      <c r="A362" s="5" t="s">
+    <row r="362" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A362" s="2" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="363">
-      <c r="A363" s="5" t="s">
+    <row r="363" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A363" s="2" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="364">
-      <c r="A364" s="5" t="s">
+    <row r="364" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A364" s="2" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="365">
-      <c r="A365" s="5" t="s">
+    <row r="365" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A365" s="2" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="366">
-      <c r="A366" s="5" t="s">
+    <row r="366" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A366" s="2" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="367">
-      <c r="A367" s="5" t="s">
+    <row r="367" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A367" s="2" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="368">
-      <c r="A368" s="5" t="s">
+    <row r="368" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A368" s="2" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="369">
-      <c r="A369" s="5" t="s">
+    <row r="369" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A369" s="2" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="370">
-      <c r="A370" s="5" t="s">
+    <row r="370" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A370" s="2" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="371">
-      <c r="A371" s="5" t="s">
+    <row r="371" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A371" s="2" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="372">
-      <c r="A372" s="5" t="s">
+    <row r="372" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A372" s="2" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="373">
-      <c r="A373" s="5" t="s">
+    <row r="373" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A373" s="2" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="374">
-      <c r="A374" s="5" t="s">
+    <row r="374" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A374" s="2" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="375">
-      <c r="A375" s="5" t="s">
+    <row r="375" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A375" s="2" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="376">
-      <c r="A376" s="5" t="s">
+    <row r="376" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A376" s="2" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="377">
-      <c r="A377" s="5" t="s">
+    <row r="377" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A377" s="2" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="378">
-      <c r="A378" s="5" t="s">
+    <row r="378" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A378" s="2" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="379">
-      <c r="A379" s="5" t="s">
+    <row r="379" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A379" s="2" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="380">
-      <c r="A380" s="5" t="s">
+    <row r="380" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A380" s="2" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="381">
-      <c r="A381" s="5" t="s">
+    <row r="381" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A381" s="2" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="382">
-      <c r="A382" s="5" t="s">
+    <row r="382" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A382" s="2" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="383">
-      <c r="A383" s="5" t="s">
+    <row r="383" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A383" s="2" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="384">
-      <c r="A384" s="5" t="s">
+    <row r="384" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A384" s="2" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="385">
-      <c r="A385" s="5" t="s">
+    <row r="385" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A385" s="2" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="386">
-      <c r="A386" s="5" t="s">
+    <row r="386" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A386" s="2" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="387">
-      <c r="A387" s="5" t="s">
+    <row r="387" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A387" s="2" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="388">
-      <c r="A388" s="5" t="s">
+    <row r="388" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A388" s="2" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="389">
-      <c r="A389" s="5" t="s">
+    <row r="389" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A389" s="2" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="390">
-      <c r="A390" s="5" t="s">
+    <row r="390" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A390" s="2" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="391">
-      <c r="A391" s="5" t="s">
+    <row r="391" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A391" s="2" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="392">
-      <c r="A392" s="5" t="s">
+    <row r="392" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A392" s="2" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="393">
-      <c r="A393" s="5" t="s">
+    <row r="393" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A393" s="2" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="394">
-      <c r="A394" s="5" t="s">
+    <row r="394" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A394" s="2" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="395">
-      <c r="A395" s="5" t="s">
+    <row r="395" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A395" s="2" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="396">
-      <c r="A396" s="5" t="s">
+    <row r="396" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A396" s="2" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="397">
-      <c r="A397" s="5" t="s">
+    <row r="397" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A397" s="2" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="398">
-      <c r="A398" s="5" t="s">
+    <row r="398" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A398" s="2" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="399">
-      <c r="A399" s="5" t="s">
+    <row r="399" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A399" s="2" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="400">
-      <c r="A400" s="5" t="s">
+    <row r="400" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A400" s="2" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="401">
-      <c r="A401" s="5" t="s">
+    <row r="401" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A401" s="2" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="402">
-      <c r="A402" s="5" t="s">
+    <row r="402" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A402" s="2" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="403">
-      <c r="A403" s="5" t="s">
+    <row r="403" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A403" s="2" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="404">
-      <c r="A404" s="5" t="s">
+    <row r="404" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A404" s="2" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="405">
-      <c r="A405" s="5" t="s">
+    <row r="405" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A405" s="2" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="406">
-      <c r="A406" s="5" t="s">
+    <row r="406" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A406" s="2" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="407">
-      <c r="A407" s="5" t="s">
+    <row r="407" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A407" s="2" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="408">
-      <c r="A408" s="5" t="s">
+    <row r="408" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A408" s="2" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="409">
-      <c r="A409" s="5" t="s">
+    <row r="409" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A409" s="2" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="410">
-      <c r="A410" s="5" t="s">
+    <row r="410" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A410" s="2" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="411">
-      <c r="A411" s="5" t="s">
+    <row r="411" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A411" s="2" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="412">
-      <c r="A412" s="5" t="s">
+    <row r="412" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A412" s="2" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="413">
-      <c r="A413" s="5" t="s">
+    <row r="413" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A413" s="2" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="414">
-      <c r="A414" s="5" t="s">
+    <row r="414" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A414" s="2" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="415">
-      <c r="A415" s="5" t="s">
+    <row r="415" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A415" s="2" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="416">
-      <c r="A416" s="5" t="s">
+    <row r="416" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A416" s="2" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="417">
-      <c r="A417" s="5" t="s">
+    <row r="417" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A417" s="2" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="418">
-      <c r="A418" s="5" t="s">
+    <row r="418" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A418" s="2" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="419">
-      <c r="A419" s="5" t="s">
+    <row r="419" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A419" s="2" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="420">
-      <c r="A420" s="5" t="s">
+    <row r="420" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A420" s="2" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="421">
-      <c r="A421" s="5" t="s">
+    <row r="421" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A421" s="2" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="422">
-      <c r="A422" s="5" t="s">
+    <row r="422" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A422" s="2" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="423">
-      <c r="A423" s="5" t="s">
+    <row r="423" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A423" s="2" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="424">
-      <c r="A424" s="5" t="s">
+    <row r="424" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A424" s="2" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="425">
-      <c r="A425" s="5" t="s">
+    <row r="425" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A425" s="2" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="426">
-      <c r="A426" s="5" t="s">
+    <row r="426" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A426" s="2" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="427">
-      <c r="A427" s="5" t="s">
+    <row r="427" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A427" s="2" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="428">
-      <c r="A428" s="5" t="s">
+    <row r="428" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A428" s="2" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="429">
-      <c r="A429" s="5" t="s">
+    <row r="429" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A429" s="2" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="430">
-      <c r="A430" s="5" t="s">
+    <row r="430" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A430" s="2" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="431">
-      <c r="A431" s="5" t="s">
+    <row r="431" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A431" s="2" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="432">
-      <c r="A432" s="5" t="s">
+    <row r="432" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A432" s="2" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="433">
-      <c r="A433" s="5" t="s">
+    <row r="433" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A433" s="2" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="434">
-      <c r="A434" s="5" t="s">
+    <row r="434" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A434" s="2" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="435">
-      <c r="A435" s="5" t="s">
+    <row r="435" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A435" s="2" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="436">
-      <c r="A436" s="5" t="s">
+    <row r="436" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A436" s="2" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="437">
-      <c r="A437" s="5" t="s">
+    <row r="437" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A437" s="2" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="438">
-      <c r="A438" s="5" t="s">
+    <row r="438" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A438" s="2" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="439">
-      <c r="A439" s="5" t="s">
+    <row r="439" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A439" s="2" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="440">
-      <c r="A440" s="5" t="s">
+    <row r="440" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A440" s="2" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="441">
-      <c r="A441" s="5" t="s">
+    <row r="441" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A441" s="2" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="442">
-      <c r="A442" s="5" t="s">
+    <row r="442" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A442" s="2" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="443">
-      <c r="A443" s="5" t="s">
+    <row r="443" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A443" s="2" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="444">
-      <c r="A444" s="5" t="s">
+    <row r="444" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A444" s="2" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="445">
-      <c r="A445" s="5" t="s">
+    <row r="445" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A445" s="2" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="446">
-      <c r="A446" s="5" t="s">
+    <row r="446" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A446" s="2" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="447">
-      <c r="A447" s="5" t="s">
+    <row r="447" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A447" s="2" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="448">
-      <c r="A448" s="5" t="s">
+    <row r="448" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A448" s="2" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="449">
-      <c r="A449" s="5" t="s">
+    <row r="449" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A449" s="2" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="450">
-      <c r="A450" s="5" t="s">
+    <row r="450" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A450" s="2" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="451">
-      <c r="A451" s="5" t="s">
+    <row r="451" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A451" s="2" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="452">
-      <c r="A452" s="5" t="s">
+    <row r="452" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A452" s="2" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="453">
-      <c r="A453" s="5" t="s">
+    <row r="453" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A453" s="2" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="454">
-      <c r="A454" s="5" t="s">
+    <row r="454" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A454" s="2" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="455">
-      <c r="A455" s="5" t="s">
+    <row r="455" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A455" s="2" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="456">
-      <c r="A456" s="5" t="s">
+    <row r="456" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A456" s="2" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="457">
-      <c r="A457" s="5" t="s">
+    <row r="457" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A457" s="2" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="458">
-      <c r="A458" s="5" t="s">
+    <row r="458" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A458" s="2" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="459">
-      <c r="A459" s="5" t="s">
+    <row r="459" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A459" s="2" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="460">
-      <c r="A460" s="5" t="s">
+    <row r="460" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A460" s="2" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="461">
-      <c r="A461" s="5" t="s">
+    <row r="461" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A461" s="2" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="462">
-      <c r="A462" s="5" t="s">
+    <row r="462" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A462" s="2" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="463">
-      <c r="A463" s="5" t="s">
+    <row r="463" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A463" s="2" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="464">
-      <c r="A464" s="5" t="s">
+    <row r="464" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A464" s="2" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="465">
-      <c r="A465" s="5" t="s">
+    <row r="465" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A465" s="2" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="466">
-      <c r="A466" s="5" t="s">
+    <row r="466" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A466" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="467">
-      <c r="A467" s="5" t="s">
+    <row r="467" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A467" s="2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="468">
-      <c r="A468" s="5" t="s">
+    <row r="468" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A468" s="2" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="469">
-      <c r="A469" s="5" t="s">
+    <row r="469" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A469" s="2" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="470">
-      <c r="A470" s="5" t="s">
+    <row r="470" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A470" s="2" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="471">
-      <c r="A471" s="5" t="s">
+    <row r="471" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A471" s="2" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="472">
-      <c r="A472" s="5" t="s">
+    <row r="472" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A472" s="2" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="473">
-      <c r="A473" s="5" t="s">
+    <row r="473" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A473" s="2" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="474">
-      <c r="A474" s="5" t="s">
+    <row r="474" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A474" s="2" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="475">
-      <c r="A475" s="5" t="s">
+    <row r="475" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A475" s="2" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="476">
-      <c r="A476" s="5" t="s">
+    <row r="476" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A476" s="2" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="477">
-      <c r="A477" s="5" t="s">
+    <row r="477" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A477" s="2" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="478">
-      <c r="A478" s="5" t="s">
+    <row r="478" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A478" s="2" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="479">
-      <c r="A479" s="5" t="s">
+    <row r="479" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A479" s="2" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="480">
-      <c r="A480" s="5" t="s">
+    <row r="480" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A480" s="2" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="481">
-      <c r="A481" s="5" t="s">
+    <row r="481" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A481" s="2" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="482">
-      <c r="A482" s="5" t="s">
+    <row r="482" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A482" s="2" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="483">
-      <c r="A483" s="5" t="s">
+    <row r="483" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A483" s="2" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="484">
-      <c r="A484" s="5" t="s">
+    <row r="484" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A484" s="2" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="485">
-      <c r="A485" s="5" t="s">
+    <row r="485" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A485" s="2" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="486">
-      <c r="A486" s="5" t="s">
+    <row r="486" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A486" s="2" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="487">
-      <c r="A487" s="5" t="s">
+    <row r="487" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A487" s="2" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="488">
-      <c r="A488" s="5" t="s">
+    <row r="488" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A488" s="2" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="489">
-      <c r="A489" s="5" t="s">
+    <row r="489" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A489" s="2" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="490">
-      <c r="A490" s="5" t="s">
+    <row r="490" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A490" s="2" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="491">
-      <c r="A491" s="5" t="s">
+    <row r="491" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A491" s="2" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="492">
-      <c r="A492" s="5" t="s">
+    <row r="492" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A492" s="2" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="493">
-      <c r="A493" s="5" t="s">
+    <row r="493" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A493" s="2" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="494">
-      <c r="A494" s="5" t="s">
+    <row r="494" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A494" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="495">
-      <c r="A495" s="5" t="s">
+    <row r="495" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A495" s="2" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="496">
-      <c r="A496" s="5" t="s">
+    <row r="496" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A496" s="2" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="497">
-      <c r="A497" s="5" t="s">
+    <row r="497" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A497" s="2" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="498">
-      <c r="A498" s="5" t="s">
+    <row r="498" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A498" s="2" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="499">
-      <c r="A499" s="5" t="s">
+    <row r="499" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A499" s="2" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="500">
-      <c r="A500" s="5" t="s">
+    <row r="500" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A500" s="2" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="501">
-      <c r="A501" s="5" t="s">
+    <row r="501" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A501" s="2" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="502">
-      <c r="A502" s="5" t="s">
+    <row r="502" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A502" s="2" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="503">
-      <c r="A503" s="5" t="s">
+    <row r="503" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A503" s="2" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="504">
-      <c r="A504" s="5" t="s">
+    <row r="504" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A504" s="2" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="505">
-      <c r="A505" s="5" t="s">
+    <row r="505" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A505" s="2" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="506">
-      <c r="A506" s="5" t="s">
+    <row r="506" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A506" s="2" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="507">
-      <c r="A507" s="5" t="s">
+    <row r="507" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A507" s="2" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="508">
-      <c r="A508" s="5" t="s">
+    <row r="508" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A508" s="2" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="509">
-      <c r="A509" s="5" t="s">
+    <row r="509" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A509" s="2" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="510">
-      <c r="A510" s="5" t="s">
+    <row r="510" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A510" s="2" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="511">
-      <c r="A511" s="5" t="s">
+    <row r="511" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A511" s="2" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="512">
-      <c r="A512" s="5" t="s">
+    <row r="512" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A512" s="2" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="513">
-      <c r="A513" s="5" t="s">
+    <row r="513" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A513" s="2" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="514">
-      <c r="A514" s="5" t="s">
+    <row r="514" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A514" s="2" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="515">
-      <c r="A515" s="5" t="s">
+    <row r="515" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A515" s="2" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="516">
-      <c r="A516" s="5" t="s">
+    <row r="516" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A516" s="2" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="517">
-      <c r="A517" s="5" t="s">
+    <row r="517" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A517" s="2" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="518">
-      <c r="A518" s="5" t="s">
+    <row r="518" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A518" s="2" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="519">
-      <c r="A519" s="5" t="s">
+    <row r="519" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A519" s="2" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="520">
-      <c r="A520" s="5" t="s">
+    <row r="520" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A520" s="2" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="521">
-      <c r="A521" s="5" t="s">
+    <row r="521" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A521" s="2" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="522">
-      <c r="A522" s="5" t="s">
+    <row r="522" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A522" s="2" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="523">
-      <c r="A523" s="5" t="s">
+    <row r="523" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A523" s="2" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="524">
-      <c r="A524" s="5" t="s">
+    <row r="524" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A524" s="2" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="525">
-      <c r="A525" s="5" t="s">
+    <row r="525" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A525" s="2" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="526">
-      <c r="A526" s="5" t="s">
+    <row r="526" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A526" s="2" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="527">
-      <c r="A527" s="5" t="s">
+    <row r="527" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A527" s="2" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="528">
-      <c r="A528" s="5" t="s">
+    <row r="528" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A528" s="2" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="529">
-      <c r="A529" s="5" t="s">
+    <row r="529" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A529" s="2" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="530">
-      <c r="A530" s="5" t="s">
+    <row r="530" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A530" s="2" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="531">
-      <c r="A531" s="5" t="s">
+    <row r="531" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A531" s="2" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="532">
-      <c r="A532" s="5" t="s">
+    <row r="532" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A532" s="2" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="533">
-      <c r="A533" s="5" t="s">
+    <row r="533" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A533" s="2" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="534">
-      <c r="A534" s="5" t="s">
+    <row r="534" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A534" s="2" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="535">
-      <c r="A535" s="5" t="s">
+    <row r="535" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A535" s="2" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="536">
-      <c r="A536" s="5" t="s">
+    <row r="536" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A536" s="2" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="537">
-      <c r="A537" s="5" t="s">
+    <row r="537" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A537" s="2" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="538">
-      <c r="A538" s="5" t="s">
+    <row r="538" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A538" s="2" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="539">
-      <c r="A539" s="5" t="s">
+    <row r="539" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A539" s="2" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="540">
-      <c r="A540" s="5" t="s">
+    <row r="540" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A540" s="2" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="541">
-      <c r="A541" s="5" t="s">
+    <row r="541" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A541" s="2" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="542">
-      <c r="A542" s="5" t="s">
+    <row r="542" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A542" s="2" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="543">
-      <c r="A543" s="5" t="s">
+    <row r="543" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A543" s="2" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="544">
-      <c r="A544" s="5" t="s">
+    <row r="544" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A544" s="2" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="545">
-      <c r="A545" s="5" t="s">
+    <row r="545" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A545" s="2" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="546">
-      <c r="A546" s="5" t="s">
+    <row r="546" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A546" s="2" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="547">
-      <c r="A547" s="5" t="s">
+    <row r="547" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A547" s="2" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="548">
-      <c r="A548" s="5" t="s">
+    <row r="548" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A548" s="2" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="549">
-      <c r="A549" s="5" t="s">
+    <row r="549" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A549" s="2" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="550">
-      <c r="A550" s="5" t="s">
+    <row r="550" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A550" s="2" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="551">
-      <c r="A551" s="5" t="s">
+    <row r="551" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A551" s="2" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="552">
-      <c r="A552" s="5" t="s">
+    <row r="552" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A552" s="2" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="553">
-      <c r="A553" s="5" t="s">
+    <row r="553" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A553" s="2" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="554">
-      <c r="A554" s="5" t="s">
+    <row r="554" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A554" s="2" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="555">
-      <c r="A555" s="5" t="s">
+    <row r="555" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A555" s="2" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="556">
-      <c r="A556" s="5" t="s">
+    <row r="556" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A556" s="2" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="557">
-      <c r="A557" s="5" t="s">
+    <row r="557" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A557" s="2" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="558">
-      <c r="A558" s="5" t="s">
+    <row r="558" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A558" s="2" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="559">
-      <c r="A559" s="5" t="s">
+    <row r="559" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A559" s="2" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="560">
-      <c r="A560" s="5" t="s">
+    <row r="560" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A560" s="2" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="561">
-      <c r="A561" s="5" t="s">
+    <row r="561" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A561" s="2" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="562">
-      <c r="A562" s="5" t="s">
+    <row r="562" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A562" s="2" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="563">
-      <c r="A563" s="5" t="s">
+    <row r="563" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A563" s="2" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="564">
-      <c r="A564" s="5" t="s">
+    <row r="564" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A564" s="2" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="565">
-      <c r="A565" s="5" t="s">
+    <row r="565" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A565" s="2" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="566">
-      <c r="A566" s="5" t="s">
+    <row r="566" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A566" s="2" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="567">
-      <c r="A567" s="5" t="s">
+    <row r="567" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A567" s="2" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="568">
-      <c r="A568" s="5" t="s">
+    <row r="568" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A568" s="2" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="569">
-      <c r="A569" s="5" t="s">
+    <row r="569" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A569" s="2" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="570">
-      <c r="A570" s="5" t="s">
+    <row r="570" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A570" s="2" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="571">
-      <c r="A571" s="5" t="s">
+    <row r="571" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A571" s="2" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="572">
-      <c r="A572" s="5" t="s">
+    <row r="572" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A572" s="2" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="573">
-      <c r="A573" s="5" t="s">
+    <row r="573" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A573" s="2" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="574">
-      <c r="A574" s="5" t="s">
+    <row r="574" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A574" s="2" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="575">
-      <c r="A575" s="5" t="s">
+    <row r="575" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A575" s="2" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="576">
-      <c r="A576" s="5" t="s">
+    <row r="576" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A576" s="2" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="577">
-      <c r="A577" s="5" t="s">
+    <row r="577" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A577" s="2" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="578">
-      <c r="A578" s="5" t="s">
+    <row r="578" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A578" s="2" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="579">
-      <c r="A579" s="5" t="s">
+    <row r="579" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A579" s="2" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="580">
-      <c r="A580" s="5" t="s">
+    <row r="580" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A580" s="2" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="581">
-      <c r="A581" s="5" t="s">
+    <row r="581" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A581" s="2" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="582">
-      <c r="A582" s="5" t="s">
+    <row r="582" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A582" s="2" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="583">
-      <c r="A583" s="5" t="s">
+    <row r="583" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A583" s="2" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="584">
-      <c r="A584" s="5" t="s">
+    <row r="584" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A584" s="2" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="585">
-      <c r="A585" s="5" t="s">
+    <row r="585" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A585" s="2" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="586">
-      <c r="A586" s="5" t="s">
+    <row r="586" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A586" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="587">
-      <c r="A587" s="5" t="s">
+    <row r="587" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A587" s="2" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="588">
-      <c r="A588" s="5" t="s">
+    <row r="588" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A588" s="2" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="589">
-      <c r="A589" s="5" t="s">
+    <row r="589" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A589" s="2" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="590">
-      <c r="A590" s="5" t="s">
+    <row r="590" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A590" s="2" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="591">
-      <c r="A591" s="5" t="s">
+    <row r="591" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A591" s="2" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="592">
-      <c r="A592" s="5" t="s">
+    <row r="592" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A592" s="2" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="593">
-      <c r="A593" s="5" t="s">
+    <row r="593" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A593" s="2" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="594">
-      <c r="A594" s="5" t="s">
+    <row r="594" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A594" s="2" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="595">
-      <c r="A595" s="5" t="s">
+    <row r="595" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A595" s="2" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="596">
-      <c r="A596" s="5" t="s">
+    <row r="596" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A596" s="2" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="597">
-      <c r="A597" s="5" t="s">
+    <row r="597" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A597" s="2" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="598">
-      <c r="A598" s="5" t="s">
+    <row r="598" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A598" s="2" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="599">
-      <c r="A599" s="5" t="s">
+    <row r="599" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A599" s="2" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="600">
-      <c r="A600" s="5" t="s">
+    <row r="600" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A600" s="2" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="601">
-      <c r="A601" s="5" t="s">
+    <row r="601" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A601" s="2" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="602">
-      <c r="A602" s="5" t="s">
+    <row r="602" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A602" s="2" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="603">
-      <c r="A603" s="5" t="s">
+    <row r="603" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A603" s="2" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="604">
-      <c r="A604" s="5" t="s">
+    <row r="604" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A604" s="2" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="605">
-      <c r="A605" s="5" t="s">
+    <row r="605" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A605" s="2" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="606">
-      <c r="A606" s="5" t="s">
+    <row r="606" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A606" s="2" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="607">
-      <c r="A607" s="5" t="s">
+    <row r="607" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A607" s="2" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="608">
-      <c r="A608" s="5" t="s">
+    <row r="608" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A608" s="2" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="609">
-      <c r="A609" s="5" t="s">
+    <row r="609" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A609" s="2" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="610">
-      <c r="A610" s="5" t="s">
+    <row r="610" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A610" s="2" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="611">
-      <c r="A611" s="5" t="s">
+    <row r="611" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A611" s="2" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="612">
-      <c r="A612" s="5" t="s">
+    <row r="612" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A612" s="2" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="613">
-      <c r="A613" s="5" t="s">
+    <row r="613" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A613" s="2" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="614">
-      <c r="A614" s="5" t="s">
+    <row r="614" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A614" s="2" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="615">
-      <c r="A615" s="5" t="s">
+    <row r="615" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A615" s="2" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="616">
-      <c r="A616" s="5" t="s">
+    <row r="616" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A616" s="2" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="617">
-      <c r="A617" s="5" t="s">
+    <row r="617" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A617" s="2" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="618">
-      <c r="A618" s="5" t="s">
+    <row r="618" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A618" s="2" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="619">
-      <c r="A619" s="5" t="s">
+    <row r="619" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A619" s="2" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="620">
-      <c r="A620" s="5" t="s">
+    <row r="620" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A620" s="2" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="621">
-      <c r="A621" s="5" t="s">
+    <row r="621" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A621" s="2" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="622">
-      <c r="A622" s="5" t="s">
+    <row r="622" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A622" s="2" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="623">
-      <c r="A623" s="5" t="s">
+    <row r="623" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A623" s="2" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="624">
-      <c r="A624" s="5" t="s">
+    <row r="624" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A624" s="2" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="625">
-      <c r="A625" s="5" t="s">
+    <row r="625" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A625" s="2" t="s">
         <v>666</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>